--- a/Data/u_s_lohi_512_16/Multcomp_results.xlsx
+++ b/Data/u_s_lohi_512_16/Multcomp_results.xlsx
@@ -41,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +179,28 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF404040"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +378,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -640,77 +661,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,94 +1079,98 @@
   <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="7" customWidth="1"/>
-    <col min="7" max="8" width="3.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="11" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" customWidth="1"/>
+    <col min="8" max="8" width="2.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>-509.69359042045704</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>-221.48000000000002</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>66.733590420456991</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="6">
         <v>0.46062481414899997</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="7">
         <v>8</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="8">
         <v>23</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>-449.81359042045699</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>-161.6</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="9">
         <v>126.613590420457</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="10">
         <v>0.94995047392800003</v>
       </c>
     </row>
@@ -1153,37 +1178,37 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>-799.61359042045694</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>-511.4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="6">
         <v>-223.18640957954301</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="6">
         <v>1.8791349999999998E-6</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="13">
         <v>8</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="14">
         <v>24</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>-912.923590420457</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>-624.71</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="9">
         <v>-336.49640957954301</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -1191,37 +1216,37 @@
       <c r="A4" s="11">
         <v>1</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="12">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>-83.333590420457</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>204.88</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>493.09359042045696</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>0.634373374017</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="13">
         <v>8</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="14">
         <v>25</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>-115.82359042045701</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>172.39</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>460.60359042045701</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="10">
         <v>0.90278671239499997</v>
       </c>
     </row>
@@ -1229,37 +1254,37 @@
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="12">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>-380.93359042045699</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>-92.72</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>195.493590420457</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>0.99999302979900007</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="13">
         <v>8</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="14">
         <v>26</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>-517.08359042045709</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>-228.86999999999998</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>59.343590420456998</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="10">
         <v>0.38697102716999998</v>
       </c>
     </row>
@@ -1267,37 +1292,37 @@
       <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="12">
         <v>6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>-970.20359042045698</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>-681.99</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>-393.77640957954304</v>
       </c>
-      <c r="F6" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G6" s="13">
         <v>8</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="14">
         <v>27</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>-961.20359042045698</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>-672.99</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>-384.77640957954299</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -1305,37 +1330,37 @@
       <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="12">
         <v>7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>-110.65359042045699</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>177.56</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>465.77359042045703</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="6">
         <v>0.87224666531700001</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="13">
         <v>9</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="14">
         <v>10</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>282.006409579543</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>570.21999999999991</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>858.43359042045699</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <v>1.8646330000000002E-6</v>
       </c>
     </row>
@@ -1343,37 +1368,37 @@
       <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="12">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>-508.86359042045706</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>-220.65</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="6">
         <v>67.56359042045699</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="6">
         <v>0.46915752201499999</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="13">
         <v>9</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="14">
         <v>11</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>12.766409579543</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>300.98</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="9">
         <v>589.1935904204571</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="10">
         <v>2.8206159593000001E-2</v>
       </c>
     </row>
@@ -1381,37 +1406,37 @@
       <c r="A9" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="12">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>-1087.9535904204499</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>-799.74</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>-511.52640957954299</v>
       </c>
-      <c r="F9" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G9" s="10">
+      <c r="F9" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G9" s="13">
         <v>9</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="14">
         <v>12</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>-226.73359042045698</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>61.48</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="9">
         <v>349.69359042045699</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="10">
         <v>0.99999999910100001</v>
       </c>
     </row>
@@ -1419,37 +1444,37 @@
       <c r="A10" s="11">
         <v>1</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="12">
         <v>10</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>-517.73359042045695</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>-229.52</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <v>58.693590420456999</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="6">
         <v>0.38073412852599997</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="13">
         <v>9</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="14">
         <v>13</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>642.98640957954296</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>931.2</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>1219.41359042045</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -1457,37 +1482,37 @@
       <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="12">
         <v>11</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>-786.97359042045696</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>-498.76</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>-210.546409579543</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="6">
         <v>1.909666E-6</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="13">
         <v>9</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="14">
         <v>14</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>221.06640957954298</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>509.28</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <v>797.49359042045694</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10">
         <v>1.8822189999999998E-6</v>
       </c>
     </row>
@@ -1495,37 +1520,37 @@
       <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="12">
         <v>12</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>-1026.4735904204501</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>-738.26</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>-450.04640957954302</v>
       </c>
-      <c r="F12" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="F12" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G12" s="13">
         <v>9</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="14">
         <v>15</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>-228.583590420457</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>59.63</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="9">
         <v>347.84359042045696</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10">
         <v>0.99999999955899987</v>
       </c>
     </row>
@@ -1533,37 +1558,37 @@
       <c r="A13" s="11">
         <v>1</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="12">
         <v>13</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>-156.75359042045699</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>131.45999999999998</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>419.673590420457</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>0.9966205060929999</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="13">
         <v>9</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="14">
         <v>16</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>567.46640957954298</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>855.68</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="9">
         <v>1143.89359042045</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -1571,37 +1596,37 @@
       <c r="A14" s="11">
         <v>1</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="12">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>-578.673590420457</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>-290.45999999999998</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>-2.2464095795430001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>4.5346580150000003E-2</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="13">
         <v>9</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="14">
         <v>17</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>166.356409579543</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="9">
         <v>454.57</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="9">
         <v>742.78359042045702</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="10">
         <v>3.6456930000000001E-6</v>
       </c>
     </row>
@@ -1609,37 +1634,37 @@
       <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="12">
         <v>15</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="6">
         <v>-1028.32359042045</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>-740.11</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="6">
         <v>-451.89640957954305</v>
       </c>
-      <c r="F15" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="F15" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G15" s="13">
         <v>9</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="14">
         <v>18</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>-357.93359042045705</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>-69.72</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="9">
         <v>218.493590420457</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="10">
         <v>0.99999998407300006</v>
       </c>
     </row>
@@ -1647,37 +1672,37 @@
       <c r="A16" s="11">
         <v>1</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="12">
         <v>16</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="6">
         <v>-232.273590420457</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>55.94</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="6">
         <v>344.15359042045702</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="6">
         <v>0.99999999990200006</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="13">
         <v>9</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="14">
         <v>19</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>143.106409579543</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>431.32</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="9">
         <v>719.5335904204569</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="10">
         <v>1.2326658E-5</v>
       </c>
     </row>
@@ -1685,37 +1710,37 @@
       <c r="A17" s="11">
         <v>1</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="12">
         <v>17</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="6">
         <v>-633.38359042045704</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <v>-345.16999999999996</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="6">
         <v>-56.956409579543006</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="6">
         <v>2.8827094460000002E-3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="13">
         <v>9</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="14">
         <v>20</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <v>-177.22359042045699</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>110.99000000000001</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="9">
         <v>399.20359042045698</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="10">
         <v>0.99979058528700004</v>
       </c>
     </row>
@@ -1723,37 +1748,37 @@
       <c r="A18" s="11">
         <v>1</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="12">
         <v>18</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="6">
         <v>-1157.67359042045</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <v>-869.46</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="6">
         <v>-581.24640957954296</v>
       </c>
-      <c r="F18" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F18" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G18" s="13">
         <v>9</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="14">
         <v>21</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>-372.75359042045704</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>-84.54</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="9">
         <v>203.673590420457</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="10">
         <v>0.99999894813500001</v>
       </c>
     </row>
@@ -1761,37 +1786,37 @@
       <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="12">
         <v>19</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="6">
         <v>-656.63359042045704</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>-368.42</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <v>-80.206409579543006</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="6">
         <v>7.3417912599999999E-4</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="13">
         <v>9</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="14">
         <v>22</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>515.36640957954307</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="9">
         <v>803.57999999999993</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="9">
         <v>1091.7935904204501</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -1799,37 +1824,37 @@
       <c r="A20" s="11">
         <v>1</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="12">
         <v>20</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="6">
         <v>-976.96359042045697</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <v>-688.75</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="6">
         <v>-400.53640957954303</v>
       </c>
-      <c r="F20" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G20" s="13">
         <v>9</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="14">
         <v>23</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>129.27640957954301</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="9">
         <v>417.49</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="9">
         <v>705.70359042045709</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="10">
         <v>3.0349406000000001E-5</v>
       </c>
     </row>
@@ -1837,37 +1862,37 @@
       <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="12">
         <v>21</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>-1172.4935904204501</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>-884.28</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>-596.06640957954301</v>
       </c>
-      <c r="F21" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="F21" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G21" s="13">
         <v>9</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="14">
         <v>24</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>-333.83359042045703</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="9">
         <v>-45.62</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="9">
         <v>242.59359042045699</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="10">
         <v>0.99999999999899991</v>
       </c>
     </row>
@@ -1875,37 +1900,37 @@
       <c r="A22" s="11">
         <v>1</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="12">
         <v>22</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>-284.37359042045699</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="6">
         <v>3.8400000000000003</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <v>292.053590420457</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <v>1</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="13">
         <v>9</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="14">
         <v>25</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="9">
         <v>463.26640957954299</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="9">
         <v>751.48</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="9">
         <v>1039.6935904204502</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -1913,37 +1938,37 @@
       <c r="A23" s="11">
         <v>1</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="12">
         <v>23</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>-670.46359042045697</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>-382.25</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <v>-94.036409579543005</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="6">
         <v>3.0971472900000001E-4</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="13">
         <v>9</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="14">
         <v>26</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>62.006409579543003</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="9">
         <v>350.21999999999997</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="9">
         <v>638.43359042045699</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="10">
         <v>2.1617433750000001E-3</v>
       </c>
     </row>
@@ -1951,37 +1976,37 @@
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="12">
         <v>24</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <v>-1133.57359042045</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <v>-845.36</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="6">
         <v>-557.14640957954293</v>
       </c>
-      <c r="F24" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G24" s="10">
+      <c r="F24" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G24" s="13">
         <v>9</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="14">
         <v>27</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>-382.113590420457</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="9">
         <v>-93.899999999999991</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="9">
         <v>194.31359042045702</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="10">
         <v>0.99999103213400009</v>
       </c>
     </row>
@@ -1989,37 +2014,37 @@
       <c r="A25" s="11">
         <v>1</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="12">
         <v>25</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>-336.47359042045701</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <v>-48.26</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="6">
         <v>239.953590420457</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="6">
         <v>0.99999999999700007</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="13">
         <v>10</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="14">
         <v>11</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <v>-557.45359042045698</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="9">
         <v>-269.23999999999995</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="9">
         <v>18.973590420457001</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="10">
         <v>0.10802273068700001</v>
       </c>
     </row>
@@ -2027,37 +2052,37 @@
       <c r="A26" s="11">
         <v>1</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="12">
         <v>26</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="6">
         <v>-737.73359042045706</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="6">
         <v>-449.52</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="6">
         <v>-161.30640957954301</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="6">
         <v>4.5055360000000005E-6</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="13">
         <v>10</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="14">
         <v>12</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="9">
         <v>-796.95359042045698</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="9">
         <v>-508.73999999999995</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="9">
         <v>-220.52640957954301</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="10">
         <v>1.883101E-6</v>
       </c>
     </row>
@@ -2065,37 +2090,37 @@
       <c r="A27" s="11">
         <v>1</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="12">
         <v>27</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="6">
         <v>-1181.85359042045</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="6">
         <v>-893.64</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="6">
         <v>-605.42640957954302</v>
       </c>
-      <c r="F27" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G27" s="10">
+      <c r="F27" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G27" s="13">
         <v>10</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="14">
         <v>13</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="9">
         <v>72.766409579542994</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="9">
         <v>360.98</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="9">
         <v>649.19359042045699</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="10">
         <v>1.1507083190000001E-3</v>
       </c>
     </row>
@@ -2103,37 +2128,37 @@
       <c r="A28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="6">
         <v>-578.13359042045693</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="6">
         <v>-289.92</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="6">
         <v>-1.7064095795430001</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="6">
         <v>4.6429656776E-2</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="13">
         <v>10</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="14">
         <v>14</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="9">
         <v>-349.15359042045702</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="9">
         <v>-60.94</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="9">
         <v>227.273590420457</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="10">
         <v>0.99999999926800009</v>
       </c>
     </row>
@@ -2141,37 +2166,37 @@
       <c r="A29" s="11">
         <v>2</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="12">
         <v>4</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="6">
         <v>138.14640957954299</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="6">
         <v>426.36</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="6">
         <v>714.57359042045698</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="6">
         <v>1.6914429000000001E-5</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="13">
         <v>10</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="14">
         <v>15</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="9">
         <v>-798.803590420457</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="9">
         <v>-510.59</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="9">
         <v>-222.37640957954301</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="10">
         <v>1.880246E-6</v>
       </c>
     </row>
@@ -2179,37 +2204,37 @@
       <c r="A30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="12">
         <v>5</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="6">
         <v>-159.453590420457</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="6">
         <v>128.76000000000002</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="6">
         <v>416.97359042045701</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="6">
         <v>0.99753517531800007</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="13">
         <v>10</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="14">
         <v>16</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="9">
         <v>-2.7535904204570003</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="9">
         <v>285.45999999999998</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="9">
         <v>573.673590420457</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="10">
         <v>5.6257846076999997E-2</v>
       </c>
     </row>
@@ -2217,37 +2242,37 @@
       <c r="A31" s="11">
         <v>2</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="12">
         <v>6</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="6">
         <v>-748.72359042045696</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="6">
         <v>-460.51</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="6">
         <v>-172.296409579543</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="6">
         <v>2.977729E-6</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="13">
         <v>10</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="14">
         <v>17</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="9">
         <v>-403.863590420457</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="9">
         <v>-115.65</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="9">
         <v>172.56359042045699</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="10">
         <v>0.99957095760500003</v>
       </c>
     </row>
@@ -2255,37 +2280,37 @@
       <c r="A32" s="11">
         <v>2</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="12">
         <v>7</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="6">
         <v>110.826409579543</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="6">
         <v>399.04</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="6">
         <v>687.25359042045693</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="6">
         <v>1.04002159E-4</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="13">
         <v>10</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="14">
         <v>18</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="9">
         <v>-928.15359042045702</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="9">
         <v>-639.93999999999994</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="9">
         <v>-351.72640957954297</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -2293,37 +2318,37 @@
       <c r="A33" s="11">
         <v>2</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="12">
         <v>8</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="6">
         <v>-287.38359042045704</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="6">
         <v>0.83</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="6">
         <v>289.04359042045701</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="6">
         <v>1</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="13">
         <v>10</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H33" s="14">
         <v>19</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="9">
         <v>-427.113590420457</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="9">
         <v>-138.9</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="9">
         <v>149.31359042045699</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="10">
         <v>0.992481115247</v>
       </c>
     </row>
@@ -2331,37 +2356,37 @@
       <c r="A34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="12">
         <v>9</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="6">
         <v>-866.47359042045707</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="6">
         <v>-578.26</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="6">
         <v>-290.04640957954297</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="6">
         <v>1.8646070000000001E-6</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="13">
         <v>10</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="14">
         <v>20</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="9">
         <v>-747.4435904204571</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="9">
         <v>-459.23</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="9">
         <v>-171.01640957954299</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="10">
         <v>3.097148E-6</v>
       </c>
     </row>
@@ -2369,37 +2394,37 @@
       <c r="A35" s="11">
         <v>2</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="12">
         <v>10</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="6">
         <v>-296.25359042045699</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="6">
         <v>-8.0400000000000009</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="6">
         <v>280.173590420457</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="13">
         <v>10</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="14">
         <v>21</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="9">
         <v>-942.97359042045707</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="9">
         <v>-654.76</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="9">
         <v>-366.54640957954297</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -2407,37 +2432,37 @@
       <c r="A36" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="12">
         <v>11</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="6">
         <v>-565.49359042045694</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="6">
         <v>-277.28000000000003</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="6">
         <v>10.933590420457001</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="6">
         <v>7.8897865609000001E-2</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="13">
         <v>10</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="14">
         <v>22</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="9">
         <v>-54.853590420457003</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="9">
         <v>233.36</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="9">
         <v>521.57359042045698</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="10">
         <v>0.34484604645299999</v>
       </c>
     </row>
@@ -2445,37 +2470,37 @@
       <c r="A37" s="11">
         <v>2</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="12">
         <v>12</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="6">
         <v>-804.99359042045705</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="6">
         <v>-516.78</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="6">
         <v>-228.56640957954301</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="6">
         <v>1.8734769999999999E-6</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="13">
         <v>10</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="14">
         <v>23</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="9">
         <v>-440.94359042045699</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="9">
         <v>-152.73000000000002</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="9">
         <v>135.48359042045698</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="10">
         <v>0.973940265862</v>
       </c>
     </row>
@@ -2483,37 +2508,37 @@
       <c r="A38" s="11">
         <v>2</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="12">
         <v>13</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="6">
         <v>64.726409579543002</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="6">
         <v>352.94</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="6">
         <v>641.15359042045702</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="6">
         <v>1.8473016740000001E-3</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="13">
         <v>10</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="14">
         <v>24</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="9">
         <v>-904.053590420457</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="9">
         <v>-615.84</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="9">
         <v>-327.62640957954295</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -2521,37 +2546,37 @@
       <c r="A39" s="11">
         <v>2</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="12">
         <v>14</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="6">
         <v>-357.19359042045699</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="6">
         <v>-68.98</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="6">
         <v>219.23359042045701</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="6">
         <v>0.99999998747300001</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="13">
         <v>10</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="14">
         <v>25</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="9">
         <v>-106.953590420457</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="9">
         <v>181.26</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="9">
         <v>469.47359042045701</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="10">
         <v>0.84716096195000001</v>
       </c>
     </row>
@@ -2559,37 +2584,37 @@
       <c r="A40" s="11">
         <v>2</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="12">
         <v>15</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="6">
         <v>-806.84359042045696</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="6">
         <v>-518.63</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="6">
         <v>-230.416409579543</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="6">
         <v>1.8720799999999999E-6</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="13">
         <v>10</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="14">
         <v>26</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="9">
         <v>-508.21359042045697</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="9">
         <v>-220</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="9">
         <v>68.213590420456995</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="10">
         <v>0.47586801879600005</v>
       </c>
     </row>
@@ -2597,37 +2622,37 @@
       <c r="A41" s="11">
         <v>2</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="12">
         <v>16</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="6">
         <v>-10.793590420456999</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="6">
         <v>277.42</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="6">
         <v>565.63359042045704</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="6">
         <v>7.8454661157999997E-2</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="13">
         <v>10</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="14">
         <v>27</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="9">
         <v>-952.33359042045697</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="9">
         <v>-664.12</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="9">
         <v>-375.90640957954304</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -2635,37 +2660,37 @@
       <c r="A42" s="11">
         <v>2</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="12">
         <v>17</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="6">
         <v>-411.90359042045696</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="6">
         <v>-123.69</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="6">
         <v>164.523590420457</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="6">
         <v>0.99868987650899999</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="13">
         <v>11</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="14">
         <v>12</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="9">
         <v>-527.71359042045697</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="9">
         <v>-239.5</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K42" s="9">
         <v>48.713590420456995</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="10">
         <v>0.291261825295</v>
       </c>
     </row>
@@ -2673,37 +2698,37 @@
       <c r="A43" s="11">
         <v>2</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="12">
         <v>18</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="6">
         <v>-936.19359042045699</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="6">
         <v>-647.98</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="6">
         <v>-359.76640957954299</v>
       </c>
-      <c r="F43" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G43" s="10">
+      <c r="F43" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G43" s="13">
         <v>11</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="14">
         <v>13</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="9">
         <v>342.006409579543</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="9">
         <v>630.22</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="9">
         <v>918.43359042045699</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -2711,37 +2736,37 @@
       <c r="A44" s="11">
         <v>2</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="12">
         <v>19</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="6">
         <v>-435.15359042045696</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="6">
         <v>-146.94</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="6">
         <v>141.273590420457</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="6">
         <v>0.98394885525199993</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="13">
         <v>11</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H44" s="14">
         <v>14</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="9">
         <v>-79.913590420456998</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="9">
         <v>208.3</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="9">
         <v>496.51359042045704</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="10">
         <v>0.598723656336</v>
       </c>
     </row>
@@ -2749,37 +2774,37 @@
       <c r="A45" s="11">
         <v>2</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="12">
         <v>20</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="6">
         <v>-755.48359042045695</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="6">
         <v>-467.27000000000004</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="6">
         <v>-179.05640957954299</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="6">
         <v>2.5107629999999998E-6</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="13">
         <v>11</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H45" s="14">
         <v>15</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="9">
         <v>-529.56359042045699</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="9">
         <v>-241.35000000000002</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K45" s="9">
         <v>46.863590420457001</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="10">
         <v>0.276117818603</v>
       </c>
     </row>
@@ -2787,37 +2812,37 @@
       <c r="A46" s="11">
         <v>2</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="12">
         <v>21</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="6">
         <v>-951.01359042045692</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="6">
         <v>-662.8</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="6">
         <v>-374.58640957954299</v>
       </c>
-      <c r="F46" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G46" s="10">
+      <c r="F46" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G46" s="13">
         <v>11</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H46" s="14">
         <v>16</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="9">
         <v>266.48640957954302</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="9">
         <v>554.69999999999993</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K46" s="9">
         <v>842.91359042045701</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="10">
         <v>1.8648139999999999E-6</v>
       </c>
     </row>
@@ -2825,37 +2850,37 @@
       <c r="A47" s="11">
         <v>2</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="12">
         <v>22</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="6">
         <v>-62.893590420457002</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="6">
         <v>225.32</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="6">
         <v>513.53359042045702</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="6">
         <v>0.42177238508299997</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="13">
         <v>11</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="14">
         <v>17</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="9">
         <v>-134.62359042045699</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="9">
         <v>153.59</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K47" s="9">
         <v>441.803590420457</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="10">
         <v>0.97210983146499996</v>
       </c>
     </row>
@@ -2863,37 +2888,37 @@
       <c r="A48" s="11">
         <v>2</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="12">
         <v>23</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="6">
         <v>-448.98359042045701</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="6">
         <v>-160.77000000000001</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="6">
         <v>127.443590420457</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="6">
         <v>0.95271185475300002</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="13">
         <v>11</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H48" s="14">
         <v>18</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="9">
         <v>-658.91359042045701</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="9">
         <v>-370.7</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="9">
         <v>-82.486409579542993</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="10">
         <v>6.3836200100000006E-4</v>
       </c>
     </row>
@@ -2901,37 +2926,37 @@
       <c r="A49" s="11">
         <v>2</v>
       </c>
-      <c r="B49" s="26">
+      <c r="B49" s="12">
         <v>24</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="6">
         <v>-912.09359042045696</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="6">
         <v>-623.88</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="6">
         <v>-335.66640957954303</v>
       </c>
-      <c r="F49" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G49" s="10">
+      <c r="F49" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G49" s="13">
         <v>11</v>
       </c>
-      <c r="H49" s="22">
+      <c r="H49" s="14">
         <v>19</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="9">
         <v>-157.87359042045702</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="9">
         <v>130.34</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K49" s="9">
         <v>418.553590420457</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="10">
         <v>0.9970301281920001</v>
       </c>
     </row>
@@ -2939,37 +2964,37 @@
       <c r="A50" s="11">
         <v>2</v>
       </c>
-      <c r="B50" s="26">
+      <c r="B50" s="12">
         <v>25</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="6">
         <v>-114.993590420457</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="6">
         <v>173.22</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="6">
         <v>461.43359042045699</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="6">
         <v>0.898239840904</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="13">
         <v>11</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="14">
         <v>20</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="9">
         <v>-478.20359042045703</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="9">
         <v>-189.98999999999998</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K50" s="9">
         <v>98.223590420457001</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="10">
         <v>0.77789018091999995</v>
       </c>
     </row>
@@ -2977,37 +3002,37 @@
       <c r="A51" s="11">
         <v>2</v>
       </c>
-      <c r="B51" s="26">
+      <c r="B51" s="12">
         <v>26</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="6">
         <v>-516.25359042045704</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="6">
         <v>-228.04</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="6">
         <v>60.173590420457003</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="6">
         <v>0.39499857112600001</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="13">
         <v>11</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="14">
         <v>21</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="9">
         <v>-673.73359042045695</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="9">
         <v>-385.52</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K51" s="9">
         <v>-97.306409579542986</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="10">
         <v>2.5128310699999999E-4</v>
       </c>
     </row>
@@ -3015,37 +3040,37 @@
       <c r="A52" s="11">
         <v>2</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="12">
         <v>27</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="6">
         <v>-960.37359042045705</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="6">
         <v>-672.16</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="6">
         <v>-383.946409579543</v>
       </c>
-      <c r="F52" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G52" s="10">
+      <c r="F52" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G52" s="13">
         <v>11</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="14">
         <v>22</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="9">
         <v>214.386409579543</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="9">
         <v>502.6</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="9">
         <v>790.81359042045699</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="10">
         <v>1.8966819999999999E-6</v>
       </c>
     </row>
@@ -3053,37 +3078,37 @@
       <c r="A53" s="11">
         <v>3</v>
       </c>
-      <c r="B53" s="26">
+      <c r="B53" s="12">
         <v>4</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="6">
         <v>428.06640957954301</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="6">
         <v>716.28</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="6">
         <v>1004.4935904204499</v>
       </c>
-      <c r="F53" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G53" s="10">
+      <c r="F53" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G53" s="13">
         <v>11</v>
       </c>
-      <c r="H53" s="22">
+      <c r="H53" s="14">
         <v>23</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="9">
         <v>-171.703590420457</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="9">
         <v>116.51</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K53" s="9">
         <v>404.72359042045701</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="10">
         <v>0.9995130912489999</v>
       </c>
     </row>
@@ -3091,37 +3116,37 @@
       <c r="A54" s="11">
         <v>3</v>
       </c>
-      <c r="B54" s="26">
+      <c r="B54" s="12">
         <v>5</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C54" s="6">
         <v>130.46640957954301</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="6">
         <v>418.68</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="6">
         <v>706.89359042045692</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="6">
         <v>2.8036505999999998E-5</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="13">
         <v>11</v>
       </c>
-      <c r="H54" s="22">
+      <c r="H54" s="14">
         <v>24</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="9">
         <v>-634.81359042045699</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="9">
         <v>-346.6</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K54" s="9">
         <v>-58.386409579542999</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="10">
         <v>2.6585079510000002E-3</v>
       </c>
     </row>
@@ -3129,37 +3154,37 @@
       <c r="A55" s="11">
         <v>3</v>
       </c>
-      <c r="B55" s="26">
+      <c r="B55" s="12">
         <v>6</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="6">
         <v>-458.803590420457</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="6">
         <v>-170.59</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="6">
         <v>117.62359042045701</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="6">
         <v>0.912182810372</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="13">
         <v>11</v>
       </c>
-      <c r="H55" s="22">
+      <c r="H55" s="14">
         <v>25</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="9">
         <v>162.28640957954298</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="9">
         <v>450.5</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K55" s="9">
         <v>738.71359042045708</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="10">
         <v>4.3121829999999993E-6</v>
       </c>
     </row>
@@ -3167,37 +3192,37 @@
       <c r="A56" s="11">
         <v>3</v>
       </c>
-      <c r="B56" s="26">
+      <c r="B56" s="12">
         <v>7</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="6">
         <v>400.74640957954301</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="6">
         <v>688.96</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="6">
         <v>977.173590420457</v>
       </c>
-      <c r="F56" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G56" s="10">
+      <c r="F56" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G56" s="13">
         <v>11</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H56" s="14">
         <v>26</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="9">
         <v>-238.97359042045699</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="9">
         <v>49.24</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K56" s="9">
         <v>337.45359042045698</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="10">
         <v>0.99999999999499989</v>
       </c>
     </row>
@@ -3205,37 +3230,37 @@
       <c r="A57" s="11">
         <v>3</v>
       </c>
-      <c r="B57" s="26">
+      <c r="B57" s="12">
         <v>8</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="6">
         <v>2.5364095795429997</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="6">
         <v>290.75</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="6">
         <v>578.96359042045697</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="6">
         <v>4.477398422E-2</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="13">
         <v>11</v>
       </c>
-      <c r="H57" s="22">
+      <c r="H57" s="14">
         <v>27</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="9">
         <v>-683.09359042045708</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="9">
         <v>-394.88</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="9">
         <v>-106.666409579543</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="10">
         <v>1.3681397000000001E-4</v>
       </c>
     </row>
@@ -3243,37 +3268,37 @@
       <c r="A58" s="11">
         <v>3</v>
       </c>
-      <c r="B58" s="26">
+      <c r="B58" s="12">
         <v>9</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="6">
         <v>-576.553590420457</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="6">
         <v>-288.33999999999997</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="6">
         <v>-0.126409579543</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="6">
         <v>4.9727655555999999E-2</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="13">
         <v>12</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H58" s="14">
         <v>13</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="9">
         <v>581.50640957954306</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="9">
         <v>869.72</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K58" s="9">
         <v>1157.9335904204499</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -3281,37 +3306,37 @@
       <c r="A59" s="11">
         <v>3</v>
       </c>
-      <c r="B59" s="26">
+      <c r="B59" s="12">
         <v>10</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="6">
         <v>-6.3335904204569999</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="6">
         <v>281.88</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="6">
         <v>570.09359042045708</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="6">
         <v>6.5379950271999998E-2</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="13">
         <v>12</v>
       </c>
-      <c r="H59" s="22">
+      <c r="H59" s="14">
         <v>14</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="9">
         <v>159.58640957954302</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="9">
         <v>447.79999999999995</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K59" s="9">
         <v>736.01359042045704</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="10">
         <v>4.8811200000000003E-6</v>
       </c>
     </row>
@@ -3319,37 +3344,37 @@
       <c r="A60" s="11">
         <v>3</v>
       </c>
-      <c r="B60" s="26">
+      <c r="B60" s="12">
         <v>11</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="6">
         <v>-275.57359042045698</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="6">
         <v>12.64</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="6">
         <v>300.85359042045701</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="6">
         <v>1</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="13">
         <v>12</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H60" s="14">
         <v>15</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="9">
         <v>-290.06359042045699</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="9">
         <v>-1.85</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K60" s="9">
         <v>286.363590420457</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3357,37 +3382,37 @@
       <c r="A61" s="11">
         <v>3</v>
       </c>
-      <c r="B61" s="26">
+      <c r="B61" s="12">
         <v>12</v>
       </c>
-      <c r="C61" s="12">
+      <c r="C61" s="6">
         <v>-515.07359042045698</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="6">
         <v>-226.86</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="6">
         <v>61.353590420457003</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="6">
         <v>0.40652887601400001</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="13">
         <v>12</v>
       </c>
-      <c r="H61" s="22">
+      <c r="H61" s="14">
         <v>16</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="9">
         <v>505.98640957954302</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="9">
         <v>794.2</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K61" s="9">
         <v>1082.41359042045</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -3395,37 +3420,37 @@
       <c r="A62" s="11">
         <v>3</v>
       </c>
-      <c r="B62" s="26">
+      <c r="B62" s="12">
         <v>13</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="6">
         <v>354.64640957954305</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="6">
         <v>642.86</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="6">
         <v>931.07359042045698</v>
       </c>
-      <c r="F62" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G62" s="10">
+      <c r="F62" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G62" s="13">
         <v>12</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H62" s="14">
         <v>17</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="9">
         <v>104.87640957954299</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="9">
         <v>393.09</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K62" s="9">
         <v>681.303590420457</v>
       </c>
-      <c r="L62" s="14">
+      <c r="L62" s="10">
         <v>1.53838903E-4</v>
       </c>
     </row>
@@ -3433,37 +3458,37 @@
       <c r="A63" s="11">
         <v>3</v>
       </c>
-      <c r="B63" s="26">
+      <c r="B63" s="12">
         <v>14</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="6">
         <v>-67.273590420456998</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="6">
         <v>220.94</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="6">
         <v>509.15359042045702</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="6">
         <v>0.466171459136</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="13">
         <v>12</v>
       </c>
-      <c r="H63" s="22">
+      <c r="H63" s="14">
         <v>18</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="9">
         <v>-419.41359042045701</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="9">
         <v>-131.20000000000002</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K63" s="9">
         <v>157.01359042045701</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="10">
         <v>0.99671966678899993</v>
       </c>
     </row>
@@ -3471,37 +3496,37 @@
       <c r="A64" s="11">
         <v>3</v>
       </c>
-      <c r="B64" s="26">
+      <c r="B64" s="12">
         <v>15</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="6">
         <v>-516.923590420457</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="6">
         <v>-228.71</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="6">
         <v>59.503590420456995</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="6">
         <v>0.38851303036900003</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="13">
         <v>12</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="14">
         <v>19</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="9">
         <v>81.626409579542994</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="9">
         <v>369.84</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K64" s="9">
         <v>658.053590420457</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="10">
         <v>6.7301732099999995E-4</v>
       </c>
     </row>
@@ -3509,37 +3534,37 @@
       <c r="A65" s="11">
         <v>3</v>
       </c>
-      <c r="B65" s="26">
+      <c r="B65" s="12">
         <v>16</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="6">
         <v>279.12640957954301</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="6">
         <v>567.33999999999992</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="6">
         <v>855.553590420457</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="6">
         <v>1.8646489999999998E-6</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="13">
         <v>12</v>
       </c>
-      <c r="H65" s="22">
+      <c r="H65" s="14">
         <v>20</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="9">
         <v>-238.703590420457</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="9">
         <v>49.51</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K65" s="9">
         <v>337.72359042045701</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="10">
         <v>0.99999999999499989</v>
       </c>
     </row>
@@ -3547,37 +3572,37 @@
       <c r="A66" s="11">
         <v>3</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="12">
         <v>17</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="6">
         <v>-121.98359042045701</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="6">
         <v>166.23</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="6">
         <v>454.44359042045699</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="6">
         <v>0.93235538621399994</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="13">
         <v>12</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H66" s="14">
         <v>21</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="9">
         <v>-434.23359042045701</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="9">
         <v>-146.02000000000001</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K66" s="9">
         <v>142.19359042045701</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="10">
         <v>0.98520639855799996</v>
       </c>
     </row>
@@ -3585,37 +3610,37 @@
       <c r="A67" s="11">
         <v>3</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="12">
         <v>18</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="6">
         <v>-646.27359042045691</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="6">
         <v>-358.06</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="6">
         <v>-69.846409579542993</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="6">
         <v>1.3685928540000001E-3</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="13">
         <v>12</v>
       </c>
-      <c r="H67" s="22">
+      <c r="H67" s="14">
         <v>22</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="9">
         <v>453.886409579543</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="9">
         <v>742.1</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K67" s="9">
         <v>1030.3135904204498</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -3623,37 +3648,37 @@
       <c r="A68" s="11">
         <v>3</v>
       </c>
-      <c r="B68" s="26">
+      <c r="B68" s="12">
         <v>19</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="6">
         <v>-145.23359042045701</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="6">
         <v>142.97999999999999</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="6">
         <v>431.19359042045704</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="6">
         <v>0.98880742352499995</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="13">
         <v>12</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="14">
         <v>23</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="9">
         <v>67.796409579542996</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="9">
         <v>356.01</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K68" s="9">
         <v>644.22359042045696</v>
       </c>
-      <c r="L68" s="14">
+      <c r="L68" s="10">
         <v>1.5442054E-3</v>
       </c>
     </row>
@@ -3661,37 +3686,37 @@
       <c r="A69" s="11">
         <v>3</v>
       </c>
-      <c r="B69" s="26">
+      <c r="B69" s="12">
         <v>20</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="6">
         <v>-465.56359042045699</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="6">
         <v>-177.35</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="6">
         <v>110.863590420457</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="6">
         <v>0.873590142811</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="13">
         <v>12</v>
       </c>
-      <c r="H69" s="22">
+      <c r="H69" s="14">
         <v>24</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I69" s="9">
         <v>-395.31359042045699</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="9">
         <v>-107.1</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K69" s="9">
         <v>181.113590420457</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="10">
         <v>0.99988977790099998</v>
       </c>
     </row>
@@ -3699,37 +3724,37 @@
       <c r="A70" s="11">
         <v>3</v>
       </c>
-      <c r="B70" s="26">
+      <c r="B70" s="12">
         <v>21</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="6">
         <v>-661.09359042045696</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="6">
         <v>-372.88</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="6">
         <v>-84.666409579543</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="6">
         <v>5.5795179300000008E-4</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="13">
         <v>12</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H70" s="14">
         <v>25</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="9">
         <v>401.78640957954298</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="9">
         <v>690</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K70" s="9">
         <v>978.21359042045697</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -3737,37 +3762,37 @@
       <c r="A71" s="11">
         <v>3</v>
       </c>
-      <c r="B71" s="26">
+      <c r="B71" s="12">
         <v>22</v>
       </c>
-      <c r="C71" s="12">
+      <c r="C71" s="6">
         <v>227.02640957954301</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="6">
         <v>515.24</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="6">
         <v>803.45359042045709</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="6">
         <v>1.8748299999999998E-6</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="13">
         <v>12</v>
       </c>
-      <c r="H71" s="22">
+      <c r="H71" s="14">
         <v>26</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="9">
         <v>0.52640957954300005</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="9">
         <v>288.74</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K71" s="9">
         <v>576.95359042045698</v>
       </c>
-      <c r="L71" s="14">
+      <c r="L71" s="10">
         <v>4.8874241563E-2</v>
       </c>
     </row>
@@ -3775,37 +3800,37 @@
       <c r="A72" s="11">
         <v>3</v>
       </c>
-      <c r="B72" s="26">
+      <c r="B72" s="12">
         <v>23</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="6">
         <v>-159.06359042045702</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="6">
         <v>129.14999999999998</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="6">
         <v>417.363590420457</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="6">
         <v>0.99741794892000013</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="13">
         <v>12</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="14">
         <v>27</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="9">
         <v>-443.59359042045696</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="9">
         <v>-155.38</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K72" s="9">
         <v>132.833590420457</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="10">
         <v>0.96798195133300002</v>
       </c>
     </row>
@@ -3813,37 +3838,37 @@
       <c r="A73" s="11">
         <v>3</v>
       </c>
-      <c r="B73" s="26">
+      <c r="B73" s="12">
         <v>24</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="6">
         <v>-622.17359042045689</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="6">
         <v>-333.96</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="6">
         <v>-45.746409579542998</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="6">
         <v>5.3576394960000006E-3</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="13">
         <v>13</v>
       </c>
-      <c r="H73" s="22">
+      <c r="H73" s="14">
         <v>14</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="9">
         <v>-710.13359042045704</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="9">
         <v>-421.92</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K73" s="9">
         <v>-133.70640957954299</v>
       </c>
-      <c r="L73" s="14">
+      <c r="L73" s="10">
         <v>2.2617554000000003E-5</v>
       </c>
     </row>
@@ -3851,37 +3876,37 @@
       <c r="A74" s="11">
         <v>3</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="12">
         <v>25</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="6">
         <v>174.92640957954299</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="6">
         <v>463.14</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="6">
         <v>751.35359042045707</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="6">
         <v>2.7664689999999999E-6</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="13">
         <v>13</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H74" s="14">
         <v>15</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="9">
         <v>-1159.7835904204501</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="9">
         <v>-871.56999999999994</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K74" s="9">
         <v>-583.35640957954308</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -3889,37 +3914,37 @@
       <c r="A75" s="11">
         <v>3</v>
       </c>
-      <c r="B75" s="26">
+      <c r="B75" s="12">
         <v>26</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="6">
         <v>-226.333590420457</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="6">
         <v>61.879999999999995</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="6">
         <v>350.09359042045702</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="6">
         <v>0.99999999895500002</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="13">
         <v>13</v>
       </c>
-      <c r="H75" s="22">
+      <c r="H75" s="14">
         <v>16</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I75" s="9">
         <v>-363.73359042045701</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="9">
         <v>-75.52000000000001</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K75" s="9">
         <v>212.69359042045699</v>
       </c>
-      <c r="L75" s="14">
+      <c r="L75" s="10">
         <v>0.99999990622800006</v>
       </c>
     </row>
@@ -3927,37 +3952,37 @@
       <c r="A76" s="11">
         <v>3</v>
       </c>
-      <c r="B76" s="26">
+      <c r="B76" s="12">
         <v>27</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="6">
         <v>-670.45359042045709</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="6">
         <v>-382.24</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="6">
         <v>-94.026409579542999</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="6">
         <v>3.0991194099999999E-4</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="13">
         <v>13</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="14">
         <v>17</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I76" s="9">
         <v>-764.84359042045708</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="9">
         <v>-476.63</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K76" s="9">
         <v>-188.416409579543</v>
       </c>
-      <c r="L76" s="14">
+      <c r="L76" s="10">
         <v>2.1640829999999999E-6</v>
       </c>
     </row>
@@ -3965,37 +3990,37 @@
       <c r="A77" s="11">
         <v>4</v>
       </c>
-      <c r="B77" s="26">
+      <c r="B77" s="12">
         <v>5</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="6">
         <v>-585.81359042045699</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="6">
         <v>-297.59999999999997</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="6">
         <v>-9.3864095795430007</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="6">
         <v>3.2955326465999996E-2</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="13">
         <v>13</v>
       </c>
-      <c r="H77" s="22">
+      <c r="H77" s="14">
         <v>18</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I77" s="9">
         <v>-1289.13359042045</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="9">
         <v>-1000.9200000000001</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K77" s="9">
         <v>-712.70640957954299</v>
       </c>
-      <c r="L77" s="14">
+      <c r="L77" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -4003,37 +4028,37 @@
       <c r="A78" s="11">
         <v>4</v>
       </c>
-      <c r="B78" s="26">
+      <c r="B78" s="12">
         <v>6</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="6">
         <v>-1175.08359042045</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="6">
         <v>-886.87</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="6">
         <v>-598.65640957954304</v>
       </c>
-      <c r="F78" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G78" s="10">
+      <c r="F78" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G78" s="13">
         <v>13</v>
       </c>
-      <c r="H78" s="22">
+      <c r="H78" s="14">
         <v>19</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I78" s="9">
         <v>-788.09359042045696</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="9">
         <v>-499.88</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K78" s="9">
         <v>-211.666409579543</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="10">
         <v>1.9054269999999999E-6</v>
       </c>
     </row>
@@ -4041,37 +4066,37 @@
       <c r="A79" s="11">
         <v>4</v>
       </c>
-      <c r="B79" s="26">
+      <c r="B79" s="12">
         <v>7</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C79" s="6">
         <v>-315.53359042045696</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="6">
         <v>-27.32</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="6">
         <v>260.89359042045703</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="6">
         <v>1</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="13">
         <v>13</v>
       </c>
-      <c r="H79" s="22">
+      <c r="H79" s="14">
         <v>20</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I79" s="9">
         <v>-1108.42359042045</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="9">
         <v>-820.21</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K79" s="9">
         <v>-531.99640957954296</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -4079,37 +4104,37 @@
       <c r="A80" s="11">
         <v>4</v>
       </c>
-      <c r="B80" s="26">
+      <c r="B80" s="12">
         <v>8</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="6">
         <v>-713.74359042045694</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="6">
         <v>-425.53000000000003</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="6">
         <v>-137.31640957954301</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="6">
         <v>1.7850906999999998E-5</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="13">
         <v>13</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="14">
         <v>21</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I80" s="9">
         <v>-1303.9535904204499</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="9">
         <v>-1015.7400000000001</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K80" s="9">
         <v>-727.52640957954293</v>
       </c>
-      <c r="L80" s="14">
+      <c r="L80" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -4117,37 +4142,37 @@
       <c r="A81" s="11">
         <v>4</v>
       </c>
-      <c r="B81" s="26">
+      <c r="B81" s="12">
         <v>9</v>
       </c>
-      <c r="C81" s="12">
+      <c r="C81" s="6">
         <v>-1292.83359042045</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="6">
         <v>-1004.6200000000001</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="6">
         <v>-716.40640957954304</v>
       </c>
-      <c r="F81" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G81" s="10">
+      <c r="F81" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G81" s="13">
         <v>13</v>
       </c>
-      <c r="H81" s="22">
+      <c r="H81" s="14">
         <v>22</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I81" s="9">
         <v>-415.83359042045697</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="9">
         <v>-127.62</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K81" s="9">
         <v>160.59359042045702</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="10">
         <v>0.997851915915</v>
       </c>
     </row>
@@ -4155,37 +4180,37 @@
       <c r="A82" s="11">
         <v>4</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B82" s="12">
         <v>10</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="6">
         <v>-722.61359042045706</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="6">
         <v>-434.40000000000003</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="6">
         <v>-146.18640957954298</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="6">
         <v>1.0191442E-5</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="13">
         <v>13</v>
       </c>
-      <c r="H82" s="22">
+      <c r="H82" s="14">
         <v>23</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="9">
         <v>-801.923590420457</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="9">
         <v>-513.71</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K82" s="9">
         <v>-225.49640957954301</v>
       </c>
-      <c r="L82" s="14">
+      <c r="L82" s="10">
         <v>1.876372E-6</v>
       </c>
     </row>
@@ -4193,37 +4218,37 @@
       <c r="A83" s="11">
         <v>4</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B83" s="12">
         <v>11</v>
       </c>
-      <c r="C83" s="12">
+      <c r="C83" s="6">
         <v>-991.85359042045695</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="6">
         <v>-703.6400000000001</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="6">
         <v>-415.42640957954302</v>
       </c>
-      <c r="F83" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G83" s="10">
+      <c r="F83" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G83" s="13">
         <v>13</v>
       </c>
-      <c r="H83" s="22">
+      <c r="H83" s="14">
         <v>24</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I83" s="9">
         <v>-1265.0335904204499</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="9">
         <v>-976.82</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K83" s="9">
         <v>-688.60640957954297</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -4231,37 +4256,37 @@
       <c r="A84" s="11">
         <v>4</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B84" s="12">
         <v>12</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="6">
         <v>-1231.35359042045</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="6">
         <v>-943.14</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="6">
         <v>-654.92640957954291</v>
       </c>
-      <c r="F84" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G84" s="10">
+      <c r="F84" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G84" s="13">
         <v>13</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H84" s="14">
         <v>25</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="9">
         <v>-467.93359042045699</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="9">
         <v>-179.72</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="9">
         <v>108.493590420457</v>
       </c>
-      <c r="L84" s="14">
+      <c r="L84" s="10">
         <v>0.85792554503600005</v>
       </c>
     </row>
@@ -4269,37 +4294,37 @@
       <c r="A85" s="11">
         <v>4</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B85" s="12">
         <v>13</v>
       </c>
-      <c r="C85" s="12">
+      <c r="C85" s="6">
         <v>-361.63359042045698</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="6">
         <v>-73.42</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="6">
         <v>214.79359042045701</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="6">
         <v>0.99999994957400007</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="13">
         <v>13</v>
       </c>
-      <c r="H85" s="22">
+      <c r="H85" s="14">
         <v>26</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I85" s="9">
         <v>-869.19359042045699</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="9">
         <v>-580.98</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K85" s="9">
         <v>-292.76640957954299</v>
       </c>
-      <c r="L85" s="14">
+      <c r="L85" s="10">
         <v>1.8646020000000002E-6</v>
       </c>
     </row>
@@ -4307,37 +4332,37 @@
       <c r="A86" s="11">
         <v>4</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B86" s="12">
         <v>14</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="6">
         <v>-783.553590420457</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="6">
         <v>-495.34</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="6">
         <v>-207.12640957954301</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="6">
         <v>1.9254210000000002E-6</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="13">
         <v>13</v>
       </c>
-      <c r="H86" s="22">
+      <c r="H86" s="14">
         <v>27</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I86" s="9">
         <v>-1313.3135904204501</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="9">
         <v>-1025.0999999999999</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K86" s="9">
         <v>-736.88640957954294</v>
       </c>
-      <c r="L86" s="14">
+      <c r="L86" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -4345,37 +4370,37 @@
       <c r="A87" s="11">
         <v>4</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B87" s="12">
         <v>15</v>
       </c>
-      <c r="C87" s="12">
+      <c r="C87" s="6">
         <v>-1233.2035904204499</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="6">
         <v>-944.99</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="6">
         <v>-656.77640957954293</v>
       </c>
-      <c r="F87" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G87" s="10">
+      <c r="F87" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G87" s="13">
         <v>14</v>
       </c>
-      <c r="H87" s="22">
+      <c r="H87" s="14">
         <v>15</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I87" s="9">
         <v>-737.86359042045706</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="9">
         <v>-449.65</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K87" s="9">
         <v>-161.43640957954301</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L87" s="10">
         <v>4.4790630000000005E-6</v>
       </c>
     </row>
@@ -4383,37 +4408,37 @@
       <c r="A88" s="11">
         <v>4</v>
       </c>
-      <c r="B88" s="26">
+      <c r="B88" s="12">
         <v>16</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="6">
         <v>-437.15359042045696</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="6">
         <v>-148.94</v>
       </c>
-      <c r="E88" s="12">
+      <c r="E88" s="6">
         <v>139.273590420457</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="6">
         <v>0.98091836155699996</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="13">
         <v>14</v>
       </c>
-      <c r="H88" s="22">
+      <c r="H88" s="14">
         <v>16</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I88" s="9">
         <v>58.186409579542996</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="9">
         <v>346.4</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K88" s="9">
         <v>634.61359042045694</v>
       </c>
-      <c r="L88" s="14">
+      <c r="L88" s="10">
         <v>2.6888522259999998E-3</v>
       </c>
     </row>
@@ -4421,37 +4446,37 @@
       <c r="A89" s="11">
         <v>4</v>
       </c>
-      <c r="B89" s="26">
+      <c r="B89" s="12">
         <v>17</v>
       </c>
-      <c r="C89" s="12">
+      <c r="C89" s="6">
         <v>-838.26359042045692</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="6">
         <v>-550.05000000000007</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="6">
         <v>-261.83640957954304</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="6">
         <v>1.8649499999999998E-6</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="13">
         <v>14</v>
       </c>
-      <c r="H89" s="22">
+      <c r="H89" s="14">
         <v>17</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I89" s="9">
         <v>-342.923590420457</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="9">
         <v>-54.71</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K89" s="9">
         <v>233.50359042045702</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="10">
         <v>0.99999999994199995</v>
       </c>
     </row>
@@ -4459,37 +4484,37 @@
       <c r="A90" s="11">
         <v>4</v>
       </c>
-      <c r="B90" s="26">
+      <c r="B90" s="12">
         <v>18</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="6">
         <v>-1362.5535904204501</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="6">
         <v>-1074.3400000000001</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E90" s="6">
         <v>-786.12640957954306</v>
       </c>
-      <c r="F90" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G90" s="10">
+      <c r="F90" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G90" s="13">
         <v>14</v>
       </c>
-      <c r="H90" s="22">
+      <c r="H90" s="14">
         <v>18</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I90" s="9">
         <v>-867.21359042045697</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="9">
         <v>-579</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K90" s="9">
         <v>-290.78640957954298</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="10">
         <v>1.8646059999999999E-6</v>
       </c>
     </row>
@@ -4497,37 +4522,37 @@
       <c r="A91" s="11">
         <v>4</v>
       </c>
-      <c r="B91" s="26">
+      <c r="B91" s="12">
         <v>19</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="6">
         <v>-861.51359042045704</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="6">
         <v>-573.30000000000007</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="6">
         <v>-285.08640957954299</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="6">
         <v>1.8646210000000001E-6</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="13">
         <v>14</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H91" s="14">
         <v>19</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I91" s="9">
         <v>-366.173590420457</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="9">
         <v>-77.960000000000008</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K91" s="9">
         <v>210.25359042045699</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L91" s="10">
         <v>0.99999981264699989</v>
       </c>
     </row>
@@ -4535,37 +4560,37 @@
       <c r="A92" s="11">
         <v>4</v>
       </c>
-      <c r="B92" s="26">
+      <c r="B92" s="12">
         <v>20</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="6">
         <v>-1181.84359042045</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="6">
         <v>-893.63</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="6">
         <v>-605.41640957954303</v>
       </c>
-      <c r="F92" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G92" s="10">
+      <c r="F92" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G92" s="13">
         <v>14</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="14">
         <v>20</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="9">
         <v>-686.50359042045704</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="9">
         <v>-398.28999999999996</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="9">
         <v>-110.076409579543</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L92" s="10">
         <v>1.09290259E-4</v>
       </c>
     </row>
@@ -4573,37 +4598,37 @@
       <c r="A93" s="11">
         <v>4</v>
       </c>
-      <c r="B93" s="26">
+      <c r="B93" s="12">
         <v>21</v>
       </c>
-      <c r="C93" s="12">
+      <c r="C93" s="6">
         <v>-1377.37359042045</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="6">
         <v>-1089.1599999999999</v>
       </c>
-      <c r="E93" s="12">
+      <c r="E93" s="6">
         <v>-800.946409579543</v>
       </c>
-      <c r="F93" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G93" s="10">
+      <c r="F93" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G93" s="13">
         <v>14</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="14">
         <v>21</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="9">
         <v>-882.03359042045702</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="9">
         <v>-593.82000000000005</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K93" s="9">
         <v>-305.60640957954297</v>
       </c>
-      <c r="L93" s="14">
+      <c r="L93" s="10">
         <v>1.8645919999999999E-6</v>
       </c>
     </row>
@@ -4611,37 +4636,37 @@
       <c r="A94" s="11">
         <v>4</v>
       </c>
-      <c r="B94" s="26">
+      <c r="B94" s="12">
         <v>22</v>
       </c>
-      <c r="C94" s="12">
+      <c r="C94" s="6">
         <v>-489.25359042045704</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="6">
         <v>-201.04</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="6">
         <v>87.173590420457003</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="6">
         <v>0.67358355306400008</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="13">
         <v>14</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H94" s="14">
         <v>22</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="9">
         <v>6.086409579543</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="9">
         <v>294.3</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K94" s="9">
         <v>582.51359042045704</v>
       </c>
-      <c r="L94" s="14">
+      <c r="L94" s="10">
         <v>3.8256001725000002E-2</v>
       </c>
     </row>
@@ -4649,37 +4674,37 @@
       <c r="A95" s="11">
         <v>4</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B95" s="12">
         <v>23</v>
       </c>
-      <c r="C95" s="12">
+      <c r="C95" s="6">
         <v>-875.34359042045696</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="6">
         <v>-587.13</v>
       </c>
-      <c r="E95" s="12">
+      <c r="E95" s="6">
         <v>-298.91640957954303</v>
       </c>
-      <c r="F95" s="12">
+      <c r="F95" s="6">
         <v>1.864595E-6</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="13">
         <v>14</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="14">
         <v>23</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="9">
         <v>-380.00359042045699</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="9">
         <v>-91.789999999999992</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K95" s="9">
         <v>196.423590420457</v>
       </c>
-      <c r="L95" s="14">
+      <c r="L95" s="10">
         <v>0.99999430543899992</v>
       </c>
     </row>
@@ -4687,37 +4712,37 @@
       <c r="A96" s="11">
         <v>4</v>
       </c>
-      <c r="B96" s="26">
+      <c r="B96" s="12">
         <v>24</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="6">
         <v>-1338.4535904204499</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="6">
         <v>-1050.24</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="6">
         <v>-762.02640957954304</v>
       </c>
-      <c r="F96" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G96" s="10">
+      <c r="F96" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G96" s="13">
         <v>14</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="14">
         <v>24</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="9">
         <v>-843.11359042045694</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="9">
         <v>-554.9</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K96" s="9">
         <v>-266.68640957954301</v>
       </c>
-      <c r="L96" s="14">
+      <c r="L96" s="10">
         <v>1.86481E-6</v>
       </c>
     </row>
@@ -4725,37 +4750,37 @@
       <c r="A97" s="11">
         <v>4</v>
       </c>
-      <c r="B97" s="26">
+      <c r="B97" s="12">
         <v>25</v>
       </c>
-      <c r="C97" s="12">
+      <c r="C97" s="6">
         <v>-541.35359042045707</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="6">
         <v>-253.14</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="6">
         <v>35.073590420456995</v>
       </c>
-      <c r="F97" s="12">
+      <c r="F97" s="6">
         <v>0.191326675493</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="13">
         <v>14</v>
       </c>
-      <c r="H97" s="22">
+      <c r="H97" s="14">
         <v>25</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I97" s="9">
         <v>-46.013590420457</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="9">
         <v>242.2</v>
       </c>
-      <c r="K97" s="13">
+      <c r="K97" s="9">
         <v>530.41359042045701</v>
       </c>
-      <c r="L97" s="14">
+      <c r="L97" s="10">
         <v>0.26932249259300001</v>
       </c>
     </row>
@@ -4763,37 +4788,37 @@
       <c r="A98" s="11">
         <v>4</v>
       </c>
-      <c r="B98" s="26">
+      <c r="B98" s="12">
         <v>26</v>
       </c>
-      <c r="C98" s="12">
+      <c r="C98" s="6">
         <v>-942.61359042045706</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="6">
         <v>-654.4</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="6">
         <v>-366.18640957954301</v>
       </c>
-      <c r="F98" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G98" s="10">
+      <c r="F98" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G98" s="13">
         <v>14</v>
       </c>
-      <c r="H98" s="22">
+      <c r="H98" s="14">
         <v>26</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I98" s="9">
         <v>-447.27359042045703</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="9">
         <v>-159.06</v>
       </c>
-      <c r="K98" s="13">
+      <c r="K98" s="9">
         <v>129.15359042045699</v>
       </c>
-      <c r="L98" s="14">
+      <c r="L98" s="10">
         <v>0.95804452206699997</v>
       </c>
     </row>
@@ -4801,37 +4826,37 @@
       <c r="A99" s="11">
         <v>4</v>
       </c>
-      <c r="B99" s="26">
+      <c r="B99" s="12">
         <v>27</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C99" s="6">
         <v>-1386.7335904204501</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="6">
         <v>-1098.52</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="6">
         <v>-810.30640957954301</v>
       </c>
-      <c r="F99" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G99" s="10">
+      <c r="F99" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G99" s="13">
         <v>14</v>
       </c>
-      <c r="H99" s="22">
+      <c r="H99" s="14">
         <v>27</v>
       </c>
-      <c r="I99" s="13">
+      <c r="I99" s="9">
         <v>-891.39359042045692</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="9">
         <v>-603.18000000000006</v>
       </c>
-      <c r="K99" s="13">
+      <c r="K99" s="9">
         <v>-314.96640957954304</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="10">
         <v>1.8645890000000002E-6</v>
       </c>
     </row>
@@ -4839,37 +4864,37 @@
       <c r="A100" s="11">
         <v>5</v>
       </c>
-      <c r="B100" s="26">
+      <c r="B100" s="12">
         <v>6</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="6">
         <v>-877.48359042045695</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="6">
         <v>-589.27</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="6">
         <v>-301.05640957954301</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="6">
         <v>1.8645940000000002E-6</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="13">
         <v>15</v>
       </c>
-      <c r="H100" s="22">
+      <c r="H100" s="14">
         <v>16</v>
       </c>
-      <c r="I100" s="13">
+      <c r="I100" s="9">
         <v>507.83640957954299</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="9">
         <v>796.05000000000007</v>
       </c>
-      <c r="K100" s="13">
+      <c r="K100" s="9">
         <v>1084.2635904204501</v>
       </c>
-      <c r="L100" s="14">
+      <c r="L100" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -4877,37 +4902,37 @@
       <c r="A101" s="11">
         <v>5</v>
       </c>
-      <c r="B101" s="26">
+      <c r="B101" s="12">
         <v>7</v>
       </c>
-      <c r="C101" s="12">
+      <c r="C101" s="6">
         <v>-17.933590420456998</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="6">
         <v>270.28000000000003</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="6">
         <v>558.49359042045694</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="6">
         <v>0.10382903032799999</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="13">
         <v>15</v>
       </c>
-      <c r="H101" s="22">
+      <c r="H101" s="14">
         <v>17</v>
       </c>
-      <c r="I101" s="13">
+      <c r="I101" s="9">
         <v>106.726409579543</v>
       </c>
-      <c r="J101" s="13">
+      <c r="J101" s="9">
         <v>394.94</v>
       </c>
-      <c r="K101" s="13">
+      <c r="K101" s="9">
         <v>683.15359042045702</v>
       </c>
-      <c r="L101" s="14">
+      <c r="L101" s="10">
         <v>1.3627611899999999E-4</v>
       </c>
     </row>
@@ -4915,37 +4940,37 @@
       <c r="A102" s="11">
         <v>5</v>
       </c>
-      <c r="B102" s="26">
+      <c r="B102" s="12">
         <v>8</v>
       </c>
-      <c r="C102" s="12">
+      <c r="C102" s="6">
         <v>-416.14359042045703</v>
       </c>
-      <c r="D102" s="12">
+      <c r="D102" s="6">
         <v>-127.92999999999999</v>
       </c>
-      <c r="E102" s="12">
+      <c r="E102" s="6">
         <v>160.28359042045702</v>
       </c>
-      <c r="F102" s="12">
+      <c r="F102" s="6">
         <v>0.99776947891200007</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="13">
         <v>15</v>
       </c>
-      <c r="H102" s="22">
+      <c r="H102" s="14">
         <v>18</v>
       </c>
-      <c r="I102" s="13">
+      <c r="I102" s="9">
         <v>-417.56359042045699</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="9">
         <v>-129.35</v>
       </c>
-      <c r="K102" s="13">
+      <c r="K102" s="9">
         <v>158.863590420457</v>
       </c>
-      <c r="L102" s="14">
+      <c r="L102" s="10">
         <v>0.99735599310599987</v>
       </c>
     </row>
@@ -4953,37 +4978,37 @@
       <c r="A103" s="11">
         <v>5</v>
       </c>
-      <c r="B103" s="26">
+      <c r="B103" s="12">
         <v>9</v>
       </c>
-      <c r="C103" s="12">
+      <c r="C103" s="6">
         <v>-995.23359042045695</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="6">
         <v>-707.02</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="6">
         <v>-418.80640957954301</v>
       </c>
-      <c r="F103" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G103" s="10">
+      <c r="F103" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G103" s="13">
         <v>15</v>
       </c>
-      <c r="H103" s="22">
+      <c r="H103" s="14">
         <v>19</v>
       </c>
-      <c r="I103" s="13">
+      <c r="I103" s="9">
         <v>83.476409579543002</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="9">
         <v>371.69</v>
       </c>
-      <c r="K103" s="13">
+      <c r="K103" s="9">
         <v>659.90359042045702</v>
       </c>
-      <c r="L103" s="14">
+      <c r="L103" s="10">
         <v>6.0056783300000002E-4</v>
       </c>
     </row>
@@ -4991,37 +5016,37 @@
       <c r="A104" s="11">
         <v>5</v>
       </c>
-      <c r="B104" s="26">
+      <c r="B104" s="12">
         <v>10</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="6">
         <v>-425.01359042045698</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="6">
         <v>-136.80000000000001</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="6">
         <v>151.41359042045698</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="6">
         <v>0.99394006018600012</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="13">
         <v>15</v>
       </c>
-      <c r="H104" s="22">
+      <c r="H104" s="14">
         <v>20</v>
       </c>
-      <c r="I104" s="13">
+      <c r="I104" s="9">
         <v>-236.85359042045701</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="9">
         <v>51.36</v>
       </c>
-      <c r="K104" s="13">
+      <c r="K104" s="9">
         <v>339.57359042045698</v>
       </c>
-      <c r="L104" s="14">
+      <c r="L104" s="10">
         <v>0.99999999998699995</v>
       </c>
     </row>
@@ -5029,37 +5054,37 @@
       <c r="A105" s="11">
         <v>5</v>
       </c>
-      <c r="B105" s="26">
+      <c r="B105" s="12">
         <v>11</v>
       </c>
-      <c r="C105" s="12">
+      <c r="C105" s="6">
         <v>-694.25359042045693</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="6">
         <v>-406.04</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="6">
         <v>-117.82640957954301</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="6">
         <v>6.5286009999999999E-5</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="13">
         <v>15</v>
       </c>
-      <c r="H105" s="22">
+      <c r="H105" s="14">
         <v>21</v>
       </c>
-      <c r="I105" s="13">
+      <c r="I105" s="9">
         <v>-432.38359042045698</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="9">
         <v>-144.16999999999999</v>
       </c>
-      <c r="K105" s="13">
+      <c r="K105" s="9">
         <v>144.04359042045701</v>
       </c>
-      <c r="L105" s="14">
+      <c r="L105" s="10">
         <v>0.98749440212000006</v>
       </c>
     </row>
@@ -5067,37 +5092,37 @@
       <c r="A106" s="11">
         <v>5</v>
       </c>
-      <c r="B106" s="26">
+      <c r="B106" s="12">
         <v>12</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="6">
         <v>-933.75359042045704</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="6">
         <v>-645.54</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="6">
         <v>-357.326409579543</v>
       </c>
-      <c r="F106" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G106" s="10">
+      <c r="F106" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G106" s="13">
         <v>15</v>
       </c>
-      <c r="H106" s="22">
+      <c r="H106" s="14">
         <v>22</v>
       </c>
-      <c r="I106" s="13">
+      <c r="I106" s="9">
         <v>455.73640957954296</v>
       </c>
-      <c r="J106" s="13">
+      <c r="J106" s="9">
         <v>743.95</v>
       </c>
-      <c r="K106" s="13">
+      <c r="K106" s="9">
         <v>1032.16359042045</v>
       </c>
-      <c r="L106" s="14">
+      <c r="L106" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5105,37 +5130,37 @@
       <c r="A107" s="11">
         <v>5</v>
       </c>
-      <c r="B107" s="26">
+      <c r="B107" s="12">
         <v>13</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="6">
         <v>-64.033590420457003</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="6">
         <v>224.17999999999998</v>
       </c>
-      <c r="E107" s="12">
+      <c r="E107" s="6">
         <v>512.39359042045692</v>
       </c>
-      <c r="F107" s="12">
+      <c r="F107" s="6">
         <v>0.43318884276300001</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="13">
         <v>15</v>
       </c>
-      <c r="H107" s="22">
+      <c r="H107" s="14">
         <v>23</v>
       </c>
-      <c r="I107" s="13">
+      <c r="I107" s="9">
         <v>69.646409579543004</v>
       </c>
-      <c r="J107" s="13">
+      <c r="J107" s="9">
         <v>357.86</v>
       </c>
-      <c r="K107" s="13">
+      <c r="K107" s="9">
         <v>646.07359042045698</v>
       </c>
-      <c r="L107" s="14">
+      <c r="L107" s="10">
         <v>1.3848588630000001E-3</v>
       </c>
     </row>
@@ -5143,37 +5168,37 @@
       <c r="A108" s="11">
         <v>5</v>
       </c>
-      <c r="B108" s="26">
+      <c r="B108" s="12">
         <v>14</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="6">
         <v>-485.95359042045698</v>
       </c>
-      <c r="D108" s="12">
+      <c r="D108" s="6">
         <v>-197.74</v>
       </c>
-      <c r="E108" s="12">
+      <c r="E108" s="6">
         <v>90.473590420457001</v>
       </c>
-      <c r="F108" s="12">
+      <c r="F108" s="6">
         <v>0.7062735060369999</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="13">
         <v>15</v>
       </c>
-      <c r="H108" s="22">
+      <c r="H108" s="14">
         <v>24</v>
       </c>
-      <c r="I108" s="13">
+      <c r="I108" s="9">
         <v>-393.46359042045697</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="9">
         <v>-105.25</v>
       </c>
-      <c r="K108" s="13">
+      <c r="K108" s="9">
         <v>182.96359042045702</v>
       </c>
-      <c r="L108" s="14">
+      <c r="L108" s="10">
         <v>0.99991994649400007</v>
       </c>
     </row>
@@ -5181,37 +5206,37 @@
       <c r="A109" s="11">
         <v>5</v>
       </c>
-      <c r="B109" s="26">
+      <c r="B109" s="12">
         <v>15</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="6">
         <v>-935.60359042045707</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="6">
         <v>-647.39</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109" s="6">
         <v>-359.17640957954302</v>
       </c>
-      <c r="F109" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G109" s="10">
+      <c r="F109" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G109" s="13">
         <v>15</v>
       </c>
-      <c r="H109" s="22">
+      <c r="H109" s="14">
         <v>25</v>
       </c>
-      <c r="I109" s="13">
+      <c r="I109" s="9">
         <v>403.636409579543</v>
       </c>
-      <c r="J109" s="13">
+      <c r="J109" s="9">
         <v>691.84999999999991</v>
       </c>
-      <c r="K109" s="13">
+      <c r="K109" s="9">
         <v>980.06359042045699</v>
       </c>
-      <c r="L109" s="14">
+      <c r="L109" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5219,37 +5244,37 @@
       <c r="A110" s="11">
         <v>5</v>
       </c>
-      <c r="B110" s="26">
+      <c r="B110" s="12">
         <v>16</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="6">
         <v>-139.553590420457</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="6">
         <v>148.66</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="6">
         <v>436.87359042045699</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="6">
         <v>0.981368131491</v>
       </c>
-      <c r="G110" s="10">
+      <c r="G110" s="13">
         <v>15</v>
       </c>
-      <c r="H110" s="22">
+      <c r="H110" s="14">
         <v>26</v>
       </c>
-      <c r="I110" s="13">
+      <c r="I110" s="9">
         <v>2.376409579543</v>
       </c>
-      <c r="J110" s="13">
+      <c r="J110" s="9">
         <v>290.59000000000003</v>
       </c>
-      <c r="K110" s="13">
+      <c r="K110" s="9">
         <v>578.803590420457</v>
       </c>
-      <c r="L110" s="14">
+      <c r="L110" s="10">
         <v>4.5089121704E-2</v>
       </c>
     </row>
@@ -5257,37 +5282,37 @@
       <c r="A111" s="11">
         <v>5</v>
       </c>
-      <c r="B111" s="26">
+      <c r="B111" s="12">
         <v>17</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="6">
         <v>-540.66359042045701</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="6">
         <v>-252.45000000000002</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="6">
         <v>35.763590420457</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="6">
         <v>0.19572121502600001</v>
       </c>
-      <c r="G111" s="10">
+      <c r="G111" s="13">
         <v>15</v>
       </c>
-      <c r="H111" s="22">
+      <c r="H111" s="14">
         <v>27</v>
       </c>
-      <c r="I111" s="13">
+      <c r="I111" s="9">
         <v>-441.743590420457</v>
       </c>
-      <c r="J111" s="13">
+      <c r="J111" s="9">
         <v>-153.53</v>
       </c>
-      <c r="K111" s="13">
+      <c r="K111" s="9">
         <v>134.68359042045699</v>
       </c>
-      <c r="L111" s="14">
+      <c r="L111" s="10">
         <v>0.97224068214100001</v>
       </c>
     </row>
@@ -5295,37 +5320,37 @@
       <c r="A112" s="11">
         <v>5</v>
       </c>
-      <c r="B112" s="26">
+      <c r="B112" s="12">
         <v>18</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="6">
         <v>-1064.9535904204499</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="6">
         <v>-776.74</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="6">
         <v>-488.52640957954304</v>
       </c>
-      <c r="F112" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G112" s="10">
+      <c r="F112" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G112" s="13">
         <v>16</v>
       </c>
-      <c r="H112" s="22">
+      <c r="H112" s="14">
         <v>17</v>
       </c>
-      <c r="I112" s="13">
+      <c r="I112" s="9">
         <v>-689.32359042045698</v>
       </c>
-      <c r="J112" s="13">
+      <c r="J112" s="9">
         <v>-401.11</v>
       </c>
-      <c r="K112" s="13">
+      <c r="K112" s="9">
         <v>-112.896409579543</v>
       </c>
-      <c r="L112" s="14">
+      <c r="L112" s="10">
         <v>9.0667580000000004E-5</v>
       </c>
     </row>
@@ -5333,37 +5358,37 @@
       <c r="A113" s="11">
         <v>5</v>
       </c>
-      <c r="B113" s="26">
+      <c r="B113" s="12">
         <v>19</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="6">
         <v>-563.91359042045701</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="6">
         <v>-275.7</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="6">
         <v>12.513590420457001</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="6">
         <v>8.4044705974999995E-2</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="13">
         <v>16</v>
       </c>
-      <c r="H113" s="22">
+      <c r="H113" s="14">
         <v>18</v>
       </c>
-      <c r="I113" s="13">
+      <c r="I113" s="9">
         <v>-1213.61359042045</v>
       </c>
-      <c r="J113" s="13">
+      <c r="J113" s="9">
         <v>-925.4</v>
       </c>
-      <c r="K113" s="13">
+      <c r="K113" s="9">
         <v>-637.18640957954301</v>
       </c>
-      <c r="L113" s="14">
+      <c r="L113" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5371,37 +5396,37 @@
       <c r="A114" s="11">
         <v>5</v>
       </c>
-      <c r="B114" s="26">
+      <c r="B114" s="12">
         <v>20</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="6">
         <v>-884.24359042045694</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="6">
         <v>-596.03</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="6">
         <v>-307.81640957954301</v>
       </c>
-      <c r="F114" s="12">
+      <c r="F114" s="6">
         <v>1.8645910000000001E-6</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="13">
         <v>16</v>
       </c>
-      <c r="H114" s="22">
+      <c r="H114" s="14">
         <v>19</v>
       </c>
-      <c r="I114" s="13">
+      <c r="I114" s="9">
         <v>-712.57359042045698</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="9">
         <v>-424.36</v>
       </c>
-      <c r="K114" s="13">
+      <c r="K114" s="9">
         <v>-136.14640957954299</v>
       </c>
-      <c r="L114" s="14">
+      <c r="L114" s="10">
         <v>1.9266738E-5</v>
       </c>
     </row>
@@ -5409,37 +5434,37 @@
       <c r="A115" s="11">
         <v>5</v>
       </c>
-      <c r="B115" s="26">
+      <c r="B115" s="12">
         <v>21</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="6">
         <v>-1079.7735904204499</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="6">
         <v>-791.56000000000006</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="6">
         <v>-503.34640957954304</v>
       </c>
-      <c r="F115" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G115" s="10">
+      <c r="F115" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G115" s="13">
         <v>16</v>
       </c>
-      <c r="H115" s="22">
+      <c r="H115" s="14">
         <v>20</v>
       </c>
-      <c r="I115" s="13">
+      <c r="I115" s="9">
         <v>-1032.90359042045</v>
       </c>
-      <c r="J115" s="13">
+      <c r="J115" s="9">
         <v>-744.68999999999994</v>
       </c>
-      <c r="K115" s="13">
+      <c r="K115" s="9">
         <v>-456.47640957954297</v>
       </c>
-      <c r="L115" s="14">
+      <c r="L115" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5447,37 +5472,37 @@
       <c r="A116" s="11">
         <v>5</v>
       </c>
-      <c r="B116" s="26">
+      <c r="B116" s="12">
         <v>22</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="6">
         <v>-191.65359042045699</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="6">
         <v>96.56</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="6">
         <v>384.77359042045703</v>
       </c>
-      <c r="F116" s="12">
+      <c r="F116" s="6">
         <v>0.99998445172599992</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="13">
         <v>16</v>
       </c>
-      <c r="H116" s="22">
+      <c r="H116" s="14">
         <v>21</v>
       </c>
-      <c r="I116" s="13">
+      <c r="I116" s="9">
         <v>-1228.4335904204499</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="9">
         <v>-940.21999999999991</v>
       </c>
-      <c r="K116" s="13">
+      <c r="K116" s="9">
         <v>-652.00640957954306</v>
       </c>
-      <c r="L116" s="14">
+      <c r="L116" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5485,37 +5510,37 @@
       <c r="A117" s="11">
         <v>5</v>
       </c>
-      <c r="B117" s="26">
+      <c r="B117" s="12">
         <v>23</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="6">
         <v>-577.74359042045694</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="6">
         <v>-289.53000000000003</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="6">
         <v>-1.316409579543</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="6">
         <v>4.7225687461000004E-2</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="13">
         <v>16</v>
       </c>
-      <c r="H117" s="22">
+      <c r="H117" s="14">
         <v>22</v>
       </c>
-      <c r="I117" s="13">
+      <c r="I117" s="9">
         <v>-340.31359042045699</v>
       </c>
-      <c r="J117" s="13">
+      <c r="J117" s="9">
         <v>-52.1</v>
       </c>
-      <c r="K117" s="13">
+      <c r="K117" s="9">
         <v>236.113590420457</v>
       </c>
-      <c r="L117" s="14">
+      <c r="L117" s="10">
         <v>0.99999999998200007</v>
       </c>
     </row>
@@ -5523,37 +5548,37 @@
       <c r="A118" s="11">
         <v>5</v>
       </c>
-      <c r="B118" s="26">
+      <c r="B118" s="12">
         <v>24</v>
       </c>
-      <c r="C118" s="12">
+      <c r="C118" s="6">
         <v>-1040.8535904204498</v>
       </c>
-      <c r="D118" s="12">
+      <c r="D118" s="6">
         <v>-752.64</v>
       </c>
-      <c r="E118" s="12">
+      <c r="E118" s="6">
         <v>-464.42640957954302</v>
       </c>
-      <c r="F118" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G118" s="10">
+      <c r="F118" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G118" s="13">
         <v>16</v>
       </c>
-      <c r="H118" s="22">
+      <c r="H118" s="14">
         <v>23</v>
       </c>
-      <c r="I118" s="13">
+      <c r="I118" s="9">
         <v>-726.40359042045702</v>
       </c>
-      <c r="J118" s="13">
+      <c r="J118" s="9">
         <v>-438.19</v>
       </c>
-      <c r="K118" s="13">
+      <c r="K118" s="9">
         <v>-149.976409579543</v>
       </c>
-      <c r="L118" s="14">
+      <c r="L118" s="10">
         <v>8.1358570000000002E-6</v>
       </c>
     </row>
@@ -5561,37 +5586,37 @@
       <c r="A119" s="11">
         <v>5</v>
       </c>
-      <c r="B119" s="26">
+      <c r="B119" s="12">
         <v>25</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="6">
         <v>-243.75359042045699</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="6">
         <v>44.46</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="6">
         <v>332.673590420457</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="6">
         <v>1</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="13">
         <v>16</v>
       </c>
-      <c r="H119" s="22">
+      <c r="H119" s="14">
         <v>24</v>
       </c>
-      <c r="I119" s="13">
+      <c r="I119" s="9">
         <v>-1189.5135904204499</v>
       </c>
-      <c r="J119" s="13">
+      <c r="J119" s="9">
         <v>-901.3</v>
       </c>
-      <c r="K119" s="13">
+      <c r="K119" s="9">
         <v>-613.08640957954299</v>
       </c>
-      <c r="L119" s="14">
+      <c r="L119" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5599,37 +5624,37 @@
       <c r="A120" s="11">
         <v>5</v>
       </c>
-      <c r="B120" s="26">
+      <c r="B120" s="12">
         <v>26</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="6">
         <v>-645.01359042045704</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="6">
         <v>-356.8</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="6">
         <v>-68.586409579543002</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="6">
         <v>1.4741553409999999E-3</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="13">
         <v>16</v>
       </c>
-      <c r="H120" s="22">
+      <c r="H120" s="14">
         <v>25</v>
       </c>
-      <c r="I120" s="13">
+      <c r="I120" s="9">
         <v>-392.41359042045696</v>
       </c>
-      <c r="J120" s="13">
+      <c r="J120" s="9">
         <v>-104.2</v>
       </c>
-      <c r="K120" s="13">
+      <c r="K120" s="9">
         <v>184.01359042045701</v>
       </c>
-      <c r="L120" s="14">
+      <c r="L120" s="10">
         <v>0.99993352361599985</v>
       </c>
     </row>
@@ -5637,37 +5662,37 @@
       <c r="A121" s="11">
         <v>5</v>
       </c>
-      <c r="B121" s="26">
+      <c r="B121" s="12">
         <v>27</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="6">
         <v>-1089.13359042045</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="6">
         <v>-800.92</v>
       </c>
-      <c r="E121" s="12">
+      <c r="E121" s="6">
         <v>-512.70640957954311</v>
       </c>
-      <c r="F121" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G121" s="10">
+      <c r="F121" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G121" s="13">
         <v>16</v>
       </c>
-      <c r="H121" s="22">
+      <c r="H121" s="14">
         <v>26</v>
       </c>
-      <c r="I121" s="13">
+      <c r="I121" s="9">
         <v>-793.673590420457</v>
       </c>
-      <c r="J121" s="13">
+      <c r="J121" s="9">
         <v>-505.46000000000004</v>
       </c>
-      <c r="K121" s="13">
+      <c r="K121" s="9">
         <v>-217.24640957954301</v>
       </c>
-      <c r="L121" s="14">
+      <c r="L121" s="10">
         <v>1.8894530000000001E-6</v>
       </c>
     </row>
@@ -5675,37 +5700,37 @@
       <c r="A122" s="11">
         <v>6</v>
       </c>
-      <c r="B122" s="26">
+      <c r="B122" s="12">
         <v>7</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="6">
         <v>571.33640957954299</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="6">
         <v>859.55000000000007</v>
       </c>
-      <c r="E122" s="12">
+      <c r="E122" s="6">
         <v>1147.7635904204499</v>
       </c>
-      <c r="F122" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G122" s="10">
+      <c r="F122" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G122" s="13">
         <v>16</v>
       </c>
-      <c r="H122" s="22">
+      <c r="H122" s="14">
         <v>27</v>
       </c>
-      <c r="I122" s="13">
+      <c r="I122" s="9">
         <v>-1237.7935904204501</v>
       </c>
-      <c r="J122" s="13">
+      <c r="J122" s="9">
         <v>-949.57999999999993</v>
       </c>
-      <c r="K122" s="13">
+      <c r="K122" s="9">
         <v>-661.36640957954296</v>
       </c>
-      <c r="L122" s="14">
+      <c r="L122" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -5713,37 +5738,37 @@
       <c r="A123" s="11">
         <v>6</v>
       </c>
-      <c r="B123" s="26">
+      <c r="B123" s="12">
         <v>8</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="6">
         <v>173.12640957954301</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="6">
         <v>461.34</v>
       </c>
-      <c r="E123" s="12">
+      <c r="E123" s="6">
         <v>749.553590420457</v>
       </c>
-      <c r="F123" s="12">
+      <c r="F123" s="6">
         <v>2.9063590000000002E-6</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="13">
         <v>17</v>
       </c>
-      <c r="H123" s="22">
+      <c r="H123" s="14">
         <v>18</v>
       </c>
-      <c r="I123" s="13">
+      <c r="I123" s="9">
         <v>-812.50359042045693</v>
       </c>
-      <c r="J123" s="13">
+      <c r="J123" s="9">
         <v>-524.29000000000008</v>
       </c>
-      <c r="K123" s="13">
+      <c r="K123" s="9">
         <v>-236.07640957954303</v>
       </c>
-      <c r="L123" s="14">
+      <c r="L123" s="10">
         <v>1.869006E-6</v>
       </c>
     </row>
@@ -5751,37 +5776,37 @@
       <c r="A124" s="11">
         <v>6</v>
       </c>
-      <c r="B124" s="26">
+      <c r="B124" s="12">
         <v>9</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="6">
         <v>-405.96359042045697</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="6">
         <v>-117.75</v>
       </c>
-      <c r="E124" s="12">
+      <c r="E124" s="6">
         <v>170.463590420457</v>
       </c>
-      <c r="F124" s="12">
+      <c r="F124" s="6">
         <v>0.99941745319500008</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="13">
         <v>17</v>
       </c>
-      <c r="H124" s="22">
+      <c r="H124" s="14">
         <v>19</v>
       </c>
-      <c r="I124" s="13">
+      <c r="I124" s="9">
         <v>-311.46359042045702</v>
       </c>
-      <c r="J124" s="13">
+      <c r="J124" s="9">
         <v>-23.25</v>
       </c>
-      <c r="K124" s="13">
+      <c r="K124" s="9">
         <v>264.96359042045697</v>
       </c>
-      <c r="L124" s="14">
+      <c r="L124" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5789,37 +5814,37 @@
       <c r="A125" s="11">
         <v>6</v>
       </c>
-      <c r="B125" s="26">
+      <c r="B125" s="12">
         <v>10</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="6">
         <v>164.25640957954298</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="6">
         <v>452.46999999999997</v>
       </c>
-      <c r="E125" s="12">
+      <c r="E125" s="6">
         <v>740.68359042045699</v>
       </c>
-      <c r="F125" s="12">
+      <c r="F125" s="6">
         <v>3.9640289999999998E-6</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="13">
         <v>17</v>
       </c>
-      <c r="H125" s="22">
+      <c r="H125" s="14">
         <v>20</v>
       </c>
-      <c r="I125" s="13">
+      <c r="I125" s="9">
         <v>-631.79359042045701</v>
       </c>
-      <c r="J125" s="13">
+      <c r="J125" s="9">
         <v>-343.58</v>
       </c>
-      <c r="K125" s="13">
+      <c r="K125" s="9">
         <v>-55.366409579543003</v>
       </c>
-      <c r="L125" s="14">
+      <c r="L125" s="10">
         <v>3.1526886379999999E-3</v>
       </c>
     </row>
@@ -5827,37 +5852,37 @@
       <c r="A126" s="11">
         <v>6</v>
       </c>
-      <c r="B126" s="26">
+      <c r="B126" s="12">
         <v>11</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="6">
         <v>-104.98359042045701</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="6">
         <v>183.23000000000002</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="6">
         <v>471.44359042045704</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F126" s="6">
         <v>0.83273080767899998</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="13">
         <v>17</v>
       </c>
-      <c r="H126" s="22">
+      <c r="H126" s="14">
         <v>21</v>
       </c>
-      <c r="I126" s="13">
+      <c r="I126" s="9">
         <v>-827.32359042045698</v>
       </c>
-      <c r="J126" s="13">
+      <c r="J126" s="9">
         <v>-539.11</v>
       </c>
-      <c r="K126" s="13">
+      <c r="K126" s="9">
         <v>-250.89640957954302</v>
       </c>
-      <c r="L126" s="14">
+      <c r="L126" s="10">
         <v>1.8656559999999998E-6</v>
       </c>
     </row>
@@ -5865,37 +5890,37 @@
       <c r="A127" s="11">
         <v>6</v>
       </c>
-      <c r="B127" s="26">
+      <c r="B127" s="12">
         <v>12</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="6">
         <v>-344.48359042045701</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="6">
         <v>-56.27</v>
       </c>
-      <c r="E127" s="12">
+      <c r="E127" s="6">
         <v>231.94359042045701</v>
       </c>
-      <c r="F127" s="12">
+      <c r="F127" s="6">
         <v>0.99999999988699995</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="13">
         <v>17</v>
       </c>
-      <c r="H127" s="22">
+      <c r="H127" s="14">
         <v>22</v>
       </c>
-      <c r="I127" s="13">
+      <c r="I127" s="9">
         <v>60.796409579543003</v>
       </c>
-      <c r="J127" s="13">
+      <c r="J127" s="9">
         <v>349.01</v>
       </c>
-      <c r="K127" s="13">
+      <c r="K127" s="9">
         <v>637.22359042045696</v>
       </c>
-      <c r="L127" s="14">
+      <c r="L127" s="10">
         <v>2.3171903520000001E-3</v>
       </c>
     </row>
@@ -5903,37 +5928,37 @@
       <c r="A128" s="11">
         <v>6</v>
       </c>
-      <c r="B128" s="26">
+      <c r="B128" s="12">
         <v>13</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="6">
         <v>525.23640957954296</v>
       </c>
-      <c r="D128" s="12">
+      <c r="D128" s="6">
         <v>813.45</v>
       </c>
-      <c r="E128" s="12">
+      <c r="E128" s="6">
         <v>1101.66359042045</v>
       </c>
-      <c r="F128" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G128" s="10">
+      <c r="F128" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G128" s="13">
         <v>17</v>
       </c>
-      <c r="H128" s="22">
+      <c r="H128" s="14">
         <v>23</v>
       </c>
-      <c r="I128" s="13">
+      <c r="I128" s="9">
         <v>-325.29359042045701</v>
       </c>
-      <c r="J128" s="13">
+      <c r="J128" s="9">
         <v>-37.08</v>
       </c>
-      <c r="K128" s="13">
+      <c r="K128" s="9">
         <v>251.13359042045701</v>
       </c>
-      <c r="L128" s="14">
+      <c r="L128" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5941,37 +5966,37 @@
       <c r="A129" s="11">
         <v>6</v>
       </c>
-      <c r="B129" s="26">
+      <c r="B129" s="12">
         <v>14</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="6">
         <v>103.31640957954299</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="6">
         <v>391.53</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129" s="6">
         <v>679.74359042045694</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129" s="6">
         <v>1.7033125300000001E-4</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="13">
         <v>17</v>
       </c>
-      <c r="H129" s="22">
+      <c r="H129" s="14">
         <v>24</v>
       </c>
-      <c r="I129" s="13">
+      <c r="I129" s="9">
         <v>-788.40359042045702</v>
       </c>
-      <c r="J129" s="13">
+      <c r="J129" s="9">
         <v>-500.19</v>
       </c>
-      <c r="K129" s="13">
+      <c r="K129" s="9">
         <v>-211.976409579543</v>
       </c>
-      <c r="L129" s="14">
+      <c r="L129" s="10">
         <v>1.9043239999999999E-6</v>
       </c>
     </row>
@@ -5979,37 +6004,37 @@
       <c r="A130" s="11">
         <v>6</v>
       </c>
-      <c r="B130" s="26">
+      <c r="B130" s="12">
         <v>15</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="6">
         <v>-346.33359042045703</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="6">
         <v>-58.12</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="6">
         <v>230.09359042045699</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F130" s="6">
         <v>0.99999999975800002</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="13">
         <v>17</v>
       </c>
-      <c r="H130" s="22">
+      <c r="H130" s="14">
         <v>25</v>
       </c>
-      <c r="I130" s="13">
+      <c r="I130" s="9">
         <v>8.6964095795430012</v>
       </c>
-      <c r="J130" s="13">
+      <c r="J130" s="9">
         <v>296.91000000000003</v>
       </c>
-      <c r="K130" s="13">
+      <c r="K130" s="9">
         <v>585.12359042045705</v>
       </c>
-      <c r="L130" s="14">
+      <c r="L130" s="10">
         <v>3.4007022337000002E-2</v>
       </c>
     </row>
@@ -6017,37 +6042,37 @@
       <c r="A131" s="11">
         <v>6</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B131" s="12">
         <v>16</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="6">
         <v>449.71640957954298</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="6">
         <v>737.93</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="6">
         <v>1026.14359042045</v>
       </c>
-      <c r="F131" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G131" s="10">
+      <c r="F131" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G131" s="13">
         <v>17</v>
       </c>
-      <c r="H131" s="22">
+      <c r="H131" s="14">
         <v>26</v>
       </c>
-      <c r="I131" s="13">
+      <c r="I131" s="9">
         <v>-392.56359042045705</v>
       </c>
-      <c r="J131" s="13">
+      <c r="J131" s="9">
         <v>-104.35</v>
       </c>
-      <c r="K131" s="13">
+      <c r="K131" s="9">
         <v>183.863590420457</v>
       </c>
-      <c r="L131" s="14">
+      <c r="L131" s="10">
         <v>0.99993172170300004</v>
       </c>
     </row>
@@ -6055,37 +6080,37 @@
       <c r="A132" s="11">
         <v>6</v>
       </c>
-      <c r="B132" s="26">
+      <c r="B132" s="12">
         <v>17</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="6">
         <v>48.606409579542998</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="6">
         <v>336.82</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E132" s="6">
         <v>625.03359042045702</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F132" s="6">
         <v>4.5856763890000001E-3</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="13">
         <v>17</v>
       </c>
-      <c r="H132" s="22">
+      <c r="H132" s="14">
         <v>27</v>
       </c>
-      <c r="I132" s="13">
+      <c r="I132" s="9">
         <v>-836.68359042045699</v>
       </c>
-      <c r="J132" s="13">
+      <c r="J132" s="9">
         <v>-548.47</v>
       </c>
-      <c r="K132" s="13">
+      <c r="K132" s="9">
         <v>-260.256409579543</v>
       </c>
-      <c r="L132" s="14">
+      <c r="L132" s="10">
         <v>1.8650120000000003E-6</v>
       </c>
     </row>
@@ -6093,37 +6118,37 @@
       <c r="A133" s="11">
         <v>6</v>
       </c>
-      <c r="B133" s="26">
+      <c r="B133" s="12">
         <v>18</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="6">
         <v>-475.68359042045699</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="6">
         <v>-187.47</v>
       </c>
-      <c r="E133" s="12">
+      <c r="E133" s="6">
         <v>100.743590420457</v>
       </c>
-      <c r="F133" s="12">
+      <c r="F133" s="6">
         <v>0.79925646136899997</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="13">
         <v>18</v>
       </c>
-      <c r="H133" s="22">
+      <c r="H133" s="14">
         <v>19</v>
       </c>
-      <c r="I133" s="13">
+      <c r="I133" s="9">
         <v>212.826409579543</v>
       </c>
-      <c r="J133" s="13">
+      <c r="J133" s="9">
         <v>501.04</v>
       </c>
-      <c r="K133" s="13">
+      <c r="K133" s="9">
         <v>789.25359042045693</v>
       </c>
-      <c r="L133" s="14">
+      <c r="L133" s="10">
         <v>1.9014459999999999E-6</v>
       </c>
     </row>
@@ -6131,37 +6156,37 @@
       <c r="A134" s="11">
         <v>6</v>
       </c>
-      <c r="B134" s="26">
+      <c r="B134" s="12">
         <v>19</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="6">
         <v>25.356409579543001</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="6">
         <v>313.57</v>
       </c>
-      <c r="E134" s="12">
+      <c r="E134" s="6">
         <v>601.78359042045702</v>
       </c>
-      <c r="F134" s="12">
+      <c r="F134" s="6">
         <v>1.5414085839999999E-2</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="13">
         <v>18</v>
       </c>
-      <c r="H134" s="22">
+      <c r="H134" s="14">
         <v>20</v>
       </c>
-      <c r="I134" s="13">
+      <c r="I134" s="9">
         <v>-107.503590420457</v>
       </c>
-      <c r="J134" s="13">
+      <c r="J134" s="9">
         <v>180.71</v>
       </c>
-      <c r="K134" s="13">
+      <c r="K134" s="9">
         <v>468.923590420457</v>
       </c>
-      <c r="L134" s="14">
+      <c r="L134" s="10">
         <v>0.85105792545199999</v>
       </c>
     </row>
@@ -6169,37 +6194,37 @@
       <c r="A135" s="11">
         <v>6</v>
       </c>
-      <c r="B135" s="26">
+      <c r="B135" s="12">
         <v>20</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="6">
         <v>-294.97359042045701</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="6">
         <v>-6.7600000000000007</v>
       </c>
-      <c r="E135" s="12">
+      <c r="E135" s="6">
         <v>281.45359042045698</v>
       </c>
-      <c r="F135" s="12">
+      <c r="F135" s="6">
         <v>1</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="13">
         <v>18</v>
       </c>
-      <c r="H135" s="22">
+      <c r="H135" s="14">
         <v>21</v>
       </c>
-      <c r="I135" s="13">
+      <c r="I135" s="9">
         <v>-303.03359042045702</v>
       </c>
-      <c r="J135" s="13">
+      <c r="J135" s="9">
         <v>-14.82</v>
       </c>
-      <c r="K135" s="13">
+      <c r="K135" s="9">
         <v>273.39359042045703</v>
       </c>
-      <c r="L135" s="14">
+      <c r="L135" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6207,37 +6232,37 @@
       <c r="A136" s="11">
         <v>6</v>
       </c>
-      <c r="B136" s="26">
+      <c r="B136" s="12">
         <v>21</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="6">
         <v>-490.50359042045699</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="6">
         <v>-202.29</v>
       </c>
-      <c r="E136" s="12">
+      <c r="E136" s="6">
         <v>85.923590420457003</v>
       </c>
-      <c r="F136" s="12">
+      <c r="F136" s="6">
         <v>0.66093970598100005</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="13">
         <v>18</v>
       </c>
-      <c r="H136" s="22">
+      <c r="H136" s="14">
         <v>22</v>
       </c>
-      <c r="I136" s="13">
+      <c r="I136" s="9">
         <v>585.0864095795431</v>
       </c>
-      <c r="J136" s="13">
+      <c r="J136" s="9">
         <v>873.3</v>
       </c>
-      <c r="K136" s="13">
+      <c r="K136" s="9">
         <v>1161.5135904204501</v>
       </c>
-      <c r="L136" s="14">
+      <c r="L136" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -6245,37 +6270,37 @@
       <c r="A137" s="11">
         <v>6</v>
       </c>
-      <c r="B137" s="26">
+      <c r="B137" s="12">
         <v>22</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="6">
         <v>397.61640957954296</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="6">
         <v>685.83</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E137" s="6">
         <v>974.04359042045701</v>
       </c>
-      <c r="F137" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G137" s="10">
+      <c r="F137" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G137" s="13">
         <v>18</v>
       </c>
-      <c r="H137" s="22">
+      <c r="H137" s="14">
         <v>23</v>
       </c>
-      <c r="I137" s="13">
+      <c r="I137" s="9">
         <v>198.99640957954301</v>
       </c>
-      <c r="J137" s="13">
+      <c r="J137" s="9">
         <v>487.21</v>
       </c>
-      <c r="K137" s="13">
+      <c r="K137" s="9">
         <v>775.423590420457</v>
       </c>
-      <c r="L137" s="14">
+      <c r="L137" s="10">
         <v>1.9873449999999998E-6</v>
       </c>
     </row>
@@ -6283,37 +6308,37 @@
       <c r="A138" s="11">
         <v>6</v>
       </c>
-      <c r="B138" s="26">
+      <c r="B138" s="12">
         <v>23</v>
       </c>
-      <c r="C138" s="12">
+      <c r="C138" s="6">
         <v>11.526409579542999</v>
       </c>
-      <c r="D138" s="12">
+      <c r="D138" s="6">
         <v>299.74</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E138" s="6">
         <v>587.95359042045698</v>
       </c>
-      <c r="F138" s="12">
+      <c r="F138" s="6">
         <v>2.9873176562E-2</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="13">
         <v>18</v>
       </c>
-      <c r="H138" s="22">
+      <c r="H138" s="14">
         <v>24</v>
       </c>
-      <c r="I138" s="13">
+      <c r="I138" s="9">
         <v>-264.113590420457</v>
       </c>
-      <c r="J138" s="13">
+      <c r="J138" s="9">
         <v>24.1</v>
       </c>
-      <c r="K138" s="13">
+      <c r="K138" s="9">
         <v>312.31359042045699</v>
       </c>
-      <c r="L138" s="14">
+      <c r="L138" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6321,37 +6346,37 @@
       <c r="A139" s="11">
         <v>6</v>
       </c>
-      <c r="B139" s="26">
+      <c r="B139" s="12">
         <v>24</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="6">
         <v>-451.58359042045697</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="6">
         <v>-163.36999999999998</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E139" s="6">
         <v>124.84359042045701</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F139" s="6">
         <v>0.94367084084199992</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="13">
         <v>18</v>
       </c>
-      <c r="H139" s="22">
+      <c r="H139" s="14">
         <v>25</v>
       </c>
-      <c r="I139" s="13">
+      <c r="I139" s="9">
         <v>532.98640957954296</v>
       </c>
-      <c r="J139" s="13">
+      <c r="J139" s="9">
         <v>821.2</v>
       </c>
-      <c r="K139" s="13">
+      <c r="K139" s="9">
         <v>1109.41359042045</v>
       </c>
-      <c r="L139" s="14">
+      <c r="L139" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -6359,37 +6384,37 @@
       <c r="A140" s="11">
         <v>6</v>
       </c>
-      <c r="B140" s="26">
+      <c r="B140" s="12">
         <v>25</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="6">
         <v>345.51640957954299</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="6">
         <v>633.73</v>
       </c>
-      <c r="E140" s="12">
+      <c r="E140" s="6">
         <v>921.94359042045699</v>
       </c>
-      <c r="F140" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G140" s="10">
+      <c r="F140" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G140" s="13">
         <v>18</v>
       </c>
-      <c r="H140" s="22">
+      <c r="H140" s="14">
         <v>26</v>
       </c>
-      <c r="I140" s="13">
+      <c r="I140" s="9">
         <v>131.726409579543</v>
       </c>
-      <c r="J140" s="13">
+      <c r="J140" s="9">
         <v>419.94</v>
       </c>
-      <c r="K140" s="13">
+      <c r="K140" s="9">
         <v>708.15359042045702</v>
       </c>
-      <c r="L140" s="14">
+      <c r="L140" s="10">
         <v>2.5784567E-5</v>
       </c>
     </row>
@@ -6397,37 +6422,37 @@
       <c r="A141" s="11">
         <v>6</v>
       </c>
-      <c r="B141" s="26">
+      <c r="B141" s="12">
         <v>26</v>
       </c>
-      <c r="C141" s="12">
+      <c r="C141" s="6">
         <v>-55.743590420456997</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="6">
         <v>232.47</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E141" s="6">
         <v>520.68359042045699</v>
       </c>
-      <c r="F141" s="12">
+      <c r="F141" s="6">
         <v>0.35301162594999996</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="13">
         <v>18</v>
       </c>
-      <c r="H141" s="22">
+      <c r="H141" s="14">
         <v>27</v>
       </c>
-      <c r="I141" s="13">
+      <c r="I141" s="9">
         <v>-312.39359042045697</v>
       </c>
-      <c r="J141" s="13">
+      <c r="J141" s="9">
         <v>-24.18</v>
       </c>
-      <c r="K141" s="13">
+      <c r="K141" s="9">
         <v>264.03359042045696</v>
       </c>
-      <c r="L141" s="14">
+      <c r="L141" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6435,37 +6460,37 @@
       <c r="A142" s="11">
         <v>6</v>
       </c>
-      <c r="B142" s="26">
+      <c r="B142" s="12">
         <v>27</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="6">
         <v>-499.863590420457</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="6">
         <v>-211.65</v>
       </c>
-      <c r="E142" s="12">
+      <c r="E142" s="6">
         <v>76.563590420457004</v>
       </c>
-      <c r="F142" s="12">
+      <c r="F142" s="6">
         <v>0.56344932862899999</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="13">
         <v>19</v>
       </c>
-      <c r="H142" s="22">
+      <c r="H142" s="14">
         <v>20</v>
       </c>
-      <c r="I142" s="13">
+      <c r="I142" s="9">
         <v>-608.54359042045701</v>
       </c>
-      <c r="J142" s="13">
+      <c r="J142" s="9">
         <v>-320.33</v>
       </c>
-      <c r="K142" s="13">
+      <c r="K142" s="9">
         <v>-32.116409579543003</v>
       </c>
-      <c r="L142" s="14">
+      <c r="L142" s="10">
         <v>1.0972012834000001E-2</v>
       </c>
     </row>
@@ -6473,37 +6498,37 @@
       <c r="A143" s="11">
         <v>7</v>
       </c>
-      <c r="B143" s="26">
+      <c r="B143" s="12">
         <v>8</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="6">
         <v>-686.423590420457</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="6">
         <v>-398.21000000000004</v>
       </c>
-      <c r="E143" s="12">
+      <c r="E143" s="6">
         <v>-109.996409579543</v>
       </c>
-      <c r="F143" s="12">
+      <c r="F143" s="6">
         <v>1.09869527E-4</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="13">
         <v>19</v>
       </c>
-      <c r="H143" s="22">
+      <c r="H143" s="14">
         <v>21</v>
       </c>
-      <c r="I143" s="13">
+      <c r="I143" s="9">
         <v>-804.07359042045698</v>
       </c>
-      <c r="J143" s="13">
+      <c r="J143" s="9">
         <v>-515.86</v>
       </c>
-      <c r="K143" s="13">
+      <c r="K143" s="9">
         <v>-227.64640957954299</v>
       </c>
-      <c r="L143" s="14">
+      <c r="L143" s="10">
         <v>1.874262E-6</v>
       </c>
     </row>
@@ -6511,37 +6536,37 @@
       <c r="A144" s="11">
         <v>7</v>
       </c>
-      <c r="B144" s="26">
+      <c r="B144" s="12">
         <v>9</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="6">
         <v>-1265.5135904204499</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="6">
         <v>-977.3</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E144" s="6">
         <v>-689.08640957954299</v>
       </c>
-      <c r="F144" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G144" s="10">
+      <c r="F144" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G144" s="13">
         <v>19</v>
       </c>
-      <c r="H144" s="22">
+      <c r="H144" s="14">
         <v>22</v>
       </c>
-      <c r="I144" s="13">
+      <c r="I144" s="9">
         <v>84.046409579542996</v>
       </c>
-      <c r="J144" s="13">
+      <c r="J144" s="9">
         <v>372.26</v>
       </c>
-      <c r="K144" s="13">
+      <c r="K144" s="9">
         <v>660.47359042045696</v>
       </c>
-      <c r="L144" s="14">
+      <c r="L144" s="10">
         <v>5.7978276200000003E-4</v>
       </c>
     </row>
@@ -6549,37 +6574,37 @@
       <c r="A145" s="11">
         <v>7</v>
       </c>
-      <c r="B145" s="26">
+      <c r="B145" s="12">
         <v>10</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="6">
         <v>-695.29359042045701</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="6">
         <v>-407.08</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="6">
         <v>-118.866409579543</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F145" s="6">
         <v>6.090218E-5</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="13">
         <v>19</v>
       </c>
-      <c r="H145" s="22">
+      <c r="H145" s="14">
         <v>23</v>
       </c>
-      <c r="I145" s="13">
+      <c r="I145" s="9">
         <v>-302.04359042045695</v>
       </c>
-      <c r="J145" s="13">
+      <c r="J145" s="9">
         <v>-13.83</v>
       </c>
-      <c r="K145" s="13">
+      <c r="K145" s="9">
         <v>274.38359042045704</v>
       </c>
-      <c r="L145" s="14">
+      <c r="L145" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6587,37 +6612,37 @@
       <c r="A146" s="11">
         <v>7</v>
       </c>
-      <c r="B146" s="26">
+      <c r="B146" s="12">
         <v>11</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C146" s="6">
         <v>-964.53359042045702</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="6">
         <v>-676.32</v>
       </c>
-      <c r="E146" s="12">
+      <c r="E146" s="6">
         <v>-388.10640957954303</v>
       </c>
-      <c r="F146" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G146" s="10">
+      <c r="F146" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G146" s="13">
         <v>19</v>
       </c>
-      <c r="H146" s="22">
+      <c r="H146" s="14">
         <v>24</v>
       </c>
-      <c r="I146" s="13">
+      <c r="I146" s="9">
         <v>-765.15359042045702</v>
       </c>
-      <c r="J146" s="13">
+      <c r="J146" s="9">
         <v>-476.94</v>
       </c>
-      <c r="K146" s="13">
+      <c r="K146" s="9">
         <v>-188.726409579543</v>
       </c>
-      <c r="L146" s="14">
+      <c r="L146" s="10">
         <v>2.1564580000000001E-6</v>
       </c>
     </row>
@@ -6625,37 +6650,37 @@
       <c r="A147" s="11">
         <v>7</v>
       </c>
-      <c r="B147" s="26">
+      <c r="B147" s="12">
         <v>12</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="6">
         <v>-1204.0335904204501</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="6">
         <v>-915.81999999999994</v>
       </c>
-      <c r="E147" s="12">
+      <c r="E147" s="6">
         <v>-627.60640957954297</v>
       </c>
-      <c r="F147" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G147" s="10">
+      <c r="F147" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G147" s="13">
         <v>19</v>
       </c>
-      <c r="H147" s="22">
+      <c r="H147" s="14">
         <v>25</v>
       </c>
-      <c r="I147" s="13">
+      <c r="I147" s="9">
         <v>31.946409579542998</v>
       </c>
-      <c r="J147" s="13">
+      <c r="J147" s="9">
         <v>320.16000000000003</v>
       </c>
-      <c r="K147" s="13">
+      <c r="K147" s="9">
         <v>608.37359042045705</v>
       </c>
-      <c r="L147" s="14">
+      <c r="L147" s="10">
         <v>1.1067638607E-2</v>
       </c>
     </row>
@@ -6663,37 +6688,37 @@
       <c r="A148" s="11">
         <v>7</v>
       </c>
-      <c r="B148" s="26">
+      <c r="B148" s="12">
         <v>13</v>
       </c>
-      <c r="C148" s="12">
+      <c r="C148" s="6">
         <v>-334.31359042045699</v>
       </c>
-      <c r="D148" s="12">
+      <c r="D148" s="6">
         <v>-46.1</v>
       </c>
-      <c r="E148" s="12">
+      <c r="E148" s="6">
         <v>242.113590420457</v>
       </c>
-      <c r="F148" s="12">
+      <c r="F148" s="6">
         <v>0.99999999999899991</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="13">
         <v>19</v>
       </c>
-      <c r="H148" s="22">
+      <c r="H148" s="14">
         <v>26</v>
       </c>
-      <c r="I148" s="13">
+      <c r="I148" s="9">
         <v>-369.31359042045705</v>
       </c>
-      <c r="J148" s="13">
+      <c r="J148" s="9">
         <v>-81.100000000000009</v>
       </c>
-      <c r="K148" s="13">
+      <c r="K148" s="9">
         <v>207.113590420457</v>
       </c>
-      <c r="L148" s="14">
+      <c r="L148" s="10">
         <v>0.99999956255599998</v>
       </c>
     </row>
@@ -6701,37 +6726,37 @@
       <c r="A149" s="11">
         <v>7</v>
       </c>
-      <c r="B149" s="26">
+      <c r="B149" s="12">
         <v>14</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="6">
         <v>-756.23359042045706</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="6">
         <v>-468.02</v>
       </c>
-      <c r="E149" s="12">
+      <c r="E149" s="6">
         <v>-179.80640957954299</v>
       </c>
-      <c r="F149" s="12">
+      <c r="F149" s="6">
         <v>2.4725659999999997E-6</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="13">
         <v>19</v>
       </c>
-      <c r="H149" s="22">
+      <c r="H149" s="14">
         <v>27</v>
       </c>
-      <c r="I149" s="13">
+      <c r="I149" s="9">
         <v>-813.43359042045699</v>
       </c>
-      <c r="J149" s="13">
+      <c r="J149" s="9">
         <v>-525.22</v>
       </c>
-      <c r="K149" s="13">
+      <c r="K149" s="9">
         <v>-237.006409579543</v>
       </c>
-      <c r="L149" s="14">
+      <c r="L149" s="10">
         <v>1.8686359999999999E-6</v>
       </c>
     </row>
@@ -6739,37 +6764,37 @@
       <c r="A150" s="11">
         <v>7</v>
       </c>
-      <c r="B150" s="26">
+      <c r="B150" s="12">
         <v>15</v>
       </c>
-      <c r="C150" s="12">
+      <c r="C150" s="6">
         <v>-1205.88359042045</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="6">
         <v>-917.67</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="6">
         <v>-629.45640957954299</v>
       </c>
-      <c r="F150" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G150" s="10">
+      <c r="F150" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G150" s="13">
         <v>20</v>
       </c>
-      <c r="H150" s="22">
+      <c r="H150" s="14">
         <v>21</v>
       </c>
-      <c r="I150" s="13">
+      <c r="I150" s="9">
         <v>-483.743590420457</v>
       </c>
-      <c r="J150" s="13">
+      <c r="J150" s="9">
         <v>-195.53</v>
       </c>
-      <c r="K150" s="13">
+      <c r="K150" s="9">
         <v>92.683590420456994</v>
       </c>
-      <c r="L150" s="14">
+      <c r="L150" s="10">
         <v>0.72750766223600005</v>
       </c>
     </row>
@@ -6777,37 +6802,37 @@
       <c r="A151" s="11">
         <v>7</v>
       </c>
-      <c r="B151" s="26">
+      <c r="B151" s="12">
         <v>16</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="6">
         <v>-409.83359042045697</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="6">
         <v>-121.62</v>
       </c>
-      <c r="E151" s="12">
+      <c r="E151" s="6">
         <v>166.59359042045699</v>
       </c>
-      <c r="F151" s="12">
+      <c r="F151" s="6">
         <v>0.99900341887699995</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="13">
         <v>20</v>
       </c>
-      <c r="H151" s="22">
+      <c r="H151" s="14">
         <v>22</v>
       </c>
-      <c r="I151" s="13">
+      <c r="I151" s="9">
         <v>404.37640957954301</v>
       </c>
-      <c r="J151" s="13">
+      <c r="J151" s="9">
         <v>692.59</v>
       </c>
-      <c r="K151" s="13">
+      <c r="K151" s="9">
         <v>980.803590420457</v>
       </c>
-      <c r="L151" s="14">
+      <c r="L151" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -6815,37 +6840,37 @@
       <c r="A152" s="11">
         <v>7</v>
       </c>
-      <c r="B152" s="26">
+      <c r="B152" s="12">
         <v>17</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="6">
         <v>-810.9435904204571</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="6">
         <v>-522.73</v>
       </c>
-      <c r="E152" s="12">
+      <c r="E152" s="6">
         <v>-234.51640957954299</v>
       </c>
-      <c r="F152" s="12">
+      <c r="F152" s="6">
         <v>1.8697020000000001E-6</v>
       </c>
-      <c r="G152" s="10">
+      <c r="G152" s="13">
         <v>20</v>
       </c>
-      <c r="H152" s="22">
+      <c r="H152" s="14">
         <v>23</v>
       </c>
-      <c r="I152" s="13">
+      <c r="I152" s="9">
         <v>18.286409579543001</v>
       </c>
-      <c r="J152" s="13">
+      <c r="J152" s="9">
         <v>306.5</v>
       </c>
-      <c r="K152" s="13">
+      <c r="K152" s="9">
         <v>594.71359042045697</v>
       </c>
-      <c r="L152" s="14">
+      <c r="L152" s="10">
         <v>2.1743660206999998E-2</v>
       </c>
     </row>
@@ -6853,37 +6878,37 @@
       <c r="A153" s="11">
         <v>7</v>
       </c>
-      <c r="B153" s="26">
+      <c r="B153" s="12">
         <v>18</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="6">
         <v>-1335.2335904204499</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="6">
         <v>-1047.02</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="6">
         <v>-758.80640957954301</v>
       </c>
-      <c r="F153" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G153" s="10">
+      <c r="F153" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G153" s="13">
         <v>20</v>
       </c>
-      <c r="H153" s="22">
+      <c r="H153" s="14">
         <v>24</v>
       </c>
-      <c r="I153" s="13">
+      <c r="I153" s="9">
         <v>-444.82359042045698</v>
       </c>
-      <c r="J153" s="13">
+      <c r="J153" s="9">
         <v>-156.60999999999999</v>
       </c>
-      <c r="K153" s="13">
+      <c r="K153" s="9">
         <v>131.60359042045698</v>
       </c>
-      <c r="L153" s="14">
+      <c r="L153" s="10">
         <v>0.96488483527800006</v>
       </c>
     </row>
@@ -6891,37 +6916,37 @@
       <c r="A154" s="11">
         <v>7</v>
       </c>
-      <c r="B154" s="26">
+      <c r="B154" s="12">
         <v>19</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="6">
         <v>-834.1935904204571</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="6">
         <v>-545.98</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="6">
         <v>-257.76640957954299</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="6">
         <v>1.8651310000000002E-6</v>
       </c>
-      <c r="G154" s="10">
+      <c r="G154" s="13">
         <v>20</v>
       </c>
-      <c r="H154" s="22">
+      <c r="H154" s="14">
         <v>25</v>
       </c>
-      <c r="I154" s="13">
+      <c r="I154" s="9">
         <v>352.27640957954299</v>
       </c>
-      <c r="J154" s="13">
+      <c r="J154" s="9">
         <v>640.49</v>
       </c>
-      <c r="K154" s="13">
+      <c r="K154" s="9">
         <v>928.70359042045698</v>
       </c>
-      <c r="L154" s="14">
+      <c r="L154" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -6929,37 +6954,37 @@
       <c r="A155" s="11">
         <v>7</v>
       </c>
-      <c r="B155" s="26">
+      <c r="B155" s="12">
         <v>20</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="6">
         <v>-1154.5235904204501</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="6">
         <v>-866.31000000000006</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E155" s="6">
         <v>-578.09640957954298</v>
       </c>
-      <c r="F155" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G155" s="10">
+      <c r="F155" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G155" s="13">
         <v>20</v>
       </c>
-      <c r="H155" s="22">
+      <c r="H155" s="14">
         <v>26</v>
       </c>
-      <c r="I155" s="13">
+      <c r="I155" s="9">
         <v>-48.983590420457006</v>
       </c>
-      <c r="J155" s="13">
+      <c r="J155" s="9">
         <v>239.23</v>
       </c>
-      <c r="K155" s="13">
+      <c r="K155" s="9">
         <v>527.44359042045699</v>
       </c>
-      <c r="L155" s="14">
+      <c r="L155" s="10">
         <v>0.29351210214000001</v>
       </c>
     </row>
@@ -6967,37 +6992,37 @@
       <c r="A156" s="11">
         <v>7</v>
       </c>
-      <c r="B156" s="26">
+      <c r="B156" s="12">
         <v>21</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="6">
         <v>-1350.0535904204501</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="6">
         <v>-1061.8399999999999</v>
       </c>
-      <c r="E156" s="12">
+      <c r="E156" s="6">
         <v>-773.62640957954295</v>
       </c>
-      <c r="F156" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G156" s="10">
+      <c r="F156" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G156" s="13">
         <v>20</v>
       </c>
-      <c r="H156" s="22">
+      <c r="H156" s="14">
         <v>27</v>
       </c>
-      <c r="I156" s="13">
+      <c r="I156" s="9">
         <v>-493.10359042045701</v>
       </c>
-      <c r="J156" s="13">
+      <c r="J156" s="9">
         <v>-204.89</v>
       </c>
-      <c r="K156" s="13">
+      <c r="K156" s="9">
         <v>83.323590420457009</v>
       </c>
-      <c r="L156" s="14">
+      <c r="L156" s="10">
         <v>0.63426996612700004</v>
       </c>
     </row>
@@ -7005,37 +7030,37 @@
       <c r="A157" s="11">
         <v>7</v>
       </c>
-      <c r="B157" s="26">
+      <c r="B157" s="12">
         <v>22</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="6">
         <v>-461.93359042045699</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="6">
         <v>-173.72000000000003</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="6">
         <v>114.493590420457</v>
       </c>
-      <c r="F157" s="12">
+      <c r="F157" s="6">
         <v>0.89543517116600002</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="13">
         <v>21</v>
       </c>
-      <c r="H157" s="22">
+      <c r="H157" s="14">
         <v>22</v>
       </c>
-      <c r="I157" s="13">
+      <c r="I157" s="9">
         <v>599.90640957954304</v>
       </c>
-      <c r="J157" s="13">
+      <c r="J157" s="9">
         <v>888.12</v>
       </c>
-      <c r="K157" s="13">
+      <c r="K157" s="9">
         <v>1176.33359042045</v>
       </c>
-      <c r="L157" s="14">
+      <c r="L157" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -7043,37 +7068,37 @@
       <c r="A158" s="11">
         <v>7</v>
       </c>
-      <c r="B158" s="26">
+      <c r="B158" s="12">
         <v>23</v>
       </c>
-      <c r="C158" s="12">
+      <c r="C158" s="6">
         <v>-848.02359042045703</v>
       </c>
-      <c r="D158" s="12">
+      <c r="D158" s="6">
         <v>-559.81000000000006</v>
       </c>
-      <c r="E158" s="12">
+      <c r="E158" s="6">
         <v>-271.59640957954304</v>
       </c>
-      <c r="F158" s="12">
+      <c r="F158" s="6">
         <v>1.8647219999999999E-6</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="13">
         <v>21</v>
       </c>
-      <c r="H158" s="22">
+      <c r="H158" s="14">
         <v>23</v>
       </c>
-      <c r="I158" s="13">
+      <c r="I158" s="9">
         <v>213.81640957954301</v>
       </c>
-      <c r="J158" s="13">
+      <c r="J158" s="9">
         <v>502.03</v>
       </c>
-      <c r="K158" s="13">
+      <c r="K158" s="9">
         <v>790.24359042045705</v>
       </c>
-      <c r="L158" s="14">
+      <c r="L158" s="10">
         <v>1.8983489999999998E-6</v>
       </c>
     </row>
@@ -7081,37 +7106,37 @@
       <c r="A159" s="11">
         <v>7</v>
       </c>
-      <c r="B159" s="26">
+      <c r="B159" s="12">
         <v>24</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="6">
         <v>-1311.13359042045</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="6">
         <v>-1022.9200000000001</v>
       </c>
-      <c r="E159" s="12">
+      <c r="E159" s="6">
         <v>-734.70640957954299</v>
       </c>
-      <c r="F159" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G159" s="10">
+      <c r="F159" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G159" s="13">
         <v>21</v>
       </c>
-      <c r="H159" s="22">
+      <c r="H159" s="14">
         <v>24</v>
       </c>
-      <c r="I159" s="13">
+      <c r="I159" s="9">
         <v>-249.29359042045701</v>
       </c>
-      <c r="J159" s="13">
+      <c r="J159" s="9">
         <v>38.92</v>
       </c>
-      <c r="K159" s="13">
+      <c r="K159" s="9">
         <v>327.13359042045698</v>
       </c>
-      <c r="L159" s="14">
+      <c r="L159" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7119,37 +7144,37 @@
       <c r="A160" s="11">
         <v>7</v>
       </c>
-      <c r="B160" s="26">
+      <c r="B160" s="12">
         <v>25</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="6">
         <v>-514.03359042045702</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="6">
         <v>-225.82</v>
       </c>
-      <c r="E160" s="12">
+      <c r="E160" s="6">
         <v>62.393590420457002</v>
       </c>
-      <c r="F160" s="12">
+      <c r="F160" s="6">
         <v>0.41679991478699996</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="13">
         <v>21</v>
       </c>
-      <c r="H160" s="22">
+      <c r="H160" s="14">
         <v>25</v>
       </c>
-      <c r="I160" s="13">
+      <c r="I160" s="9">
         <v>547.80640957954301</v>
       </c>
-      <c r="J160" s="13">
+      <c r="J160" s="9">
         <v>836.02</v>
       </c>
-      <c r="K160" s="13">
+      <c r="K160" s="9">
         <v>1124.2335904204499</v>
       </c>
-      <c r="L160" s="14">
+      <c r="L160" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -7157,37 +7182,37 @@
       <c r="A161" s="11">
         <v>7</v>
       </c>
-      <c r="B161" s="26">
+      <c r="B161" s="12">
         <v>26</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="6">
         <v>-915.29359042045701</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="6">
         <v>-627.07999999999993</v>
       </c>
-      <c r="E161" s="12">
+      <c r="E161" s="6">
         <v>-338.86640957954302</v>
       </c>
-      <c r="F161" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G161" s="10">
+      <c r="F161" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G161" s="13">
         <v>21</v>
       </c>
-      <c r="H161" s="22">
+      <c r="H161" s="14">
         <v>26</v>
       </c>
-      <c r="I161" s="13">
+      <c r="I161" s="9">
         <v>146.54640957954302</v>
       </c>
-      <c r="J161" s="13">
+      <c r="J161" s="9">
         <v>434.76</v>
       </c>
-      <c r="K161" s="13">
+      <c r="K161" s="9">
         <v>722.97359042045696</v>
       </c>
-      <c r="L161" s="14">
+      <c r="L161" s="10">
         <v>9.9712030000000002E-6</v>
       </c>
     </row>
@@ -7195,37 +7220,37 @@
       <c r="A162" s="11">
         <v>7</v>
       </c>
-      <c r="B162" s="26">
+      <c r="B162" s="12">
         <v>27</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="6">
         <v>-1359.41359042045</v>
       </c>
-      <c r="D162" s="12">
+      <c r="D162" s="6">
         <v>-1071.1999999999998</v>
       </c>
-      <c r="E162" s="12">
+      <c r="E162" s="6">
         <v>-782.98640957954296</v>
       </c>
-      <c r="F162" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G162" s="10">
+      <c r="F162" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G162" s="13">
         <v>21</v>
       </c>
-      <c r="H162" s="22">
+      <c r="H162" s="14">
         <v>27</v>
       </c>
-      <c r="I162" s="13">
+      <c r="I162" s="9">
         <v>-297.57359042045698</v>
       </c>
-      <c r="J162" s="13">
+      <c r="J162" s="9">
         <v>-9.36</v>
       </c>
-      <c r="K162" s="13">
+      <c r="K162" s="9">
         <v>278.85359042045701</v>
       </c>
-      <c r="L162" s="14">
+      <c r="L162" s="10">
         <v>1</v>
       </c>
     </row>
@@ -7233,37 +7258,37 @@
       <c r="A163" s="11">
         <v>8</v>
       </c>
-      <c r="B163" s="26">
+      <c r="B163" s="12">
         <v>9</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="6">
         <v>-867.303590420457</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="6">
         <v>-579.09</v>
       </c>
-      <c r="E163" s="12">
+      <c r="E163" s="6">
         <v>-290.87640957954301</v>
       </c>
-      <c r="F163" s="12">
+      <c r="F163" s="6">
         <v>1.8646059999999999E-6</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="13">
         <v>22</v>
       </c>
-      <c r="H163" s="22">
+      <c r="H163" s="14">
         <v>23</v>
       </c>
-      <c r="I163" s="13">
+      <c r="I163" s="9">
         <v>-674.303590420457</v>
       </c>
-      <c r="J163" s="13">
+      <c r="J163" s="9">
         <v>-386.09</v>
       </c>
-      <c r="K163" s="13">
+      <c r="K163" s="9">
         <v>-97.876409579542994</v>
       </c>
-      <c r="L163" s="14">
+      <c r="L163" s="10">
         <v>2.42245585E-4</v>
       </c>
     </row>
@@ -7271,37 +7296,37 @@
       <c r="A164" s="11">
         <v>8</v>
       </c>
-      <c r="B164" s="26">
+      <c r="B164" s="12">
         <v>10</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="6">
         <v>-297.08359042045703</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="6">
         <v>-8.8699999999999992</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E164" s="6">
         <v>279.34359042045696</v>
       </c>
-      <c r="F164" s="12">
+      <c r="F164" s="6">
         <v>1</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="13">
         <v>22</v>
       </c>
-      <c r="H164" s="22">
+      <c r="H164" s="14">
         <v>24</v>
       </c>
-      <c r="I164" s="13">
+      <c r="I164" s="9">
         <v>-1137.4135904204502</v>
       </c>
-      <c r="J164" s="13">
+      <c r="J164" s="9">
         <v>-849.19999999999993</v>
       </c>
-      <c r="K164" s="13">
+      <c r="K164" s="9">
         <v>-560.98640957954308</v>
       </c>
-      <c r="L164" s="14">
+      <c r="L164" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -7309,37 +7334,37 @@
       <c r="A165" s="11">
         <v>8</v>
       </c>
-      <c r="B165" s="26">
+      <c r="B165" s="12">
         <v>11</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="6">
         <v>-566.32359042045698</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="6">
         <v>-278.11</v>
       </c>
-      <c r="E165" s="12">
+      <c r="E165" s="6">
         <v>10.103590420457</v>
       </c>
-      <c r="F165" s="12">
+      <c r="F165" s="6">
         <v>7.6300303803999991E-2</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="13">
         <v>22</v>
       </c>
-      <c r="H165" s="22">
+      <c r="H165" s="14">
         <v>25</v>
       </c>
-      <c r="I165" s="13">
+      <c r="I165" s="9">
         <v>-340.31359042045699</v>
       </c>
-      <c r="J165" s="13">
+      <c r="J165" s="9">
         <v>-52.1</v>
       </c>
-      <c r="K165" s="13">
+      <c r="K165" s="9">
         <v>236.113590420457</v>
       </c>
-      <c r="L165" s="14">
+      <c r="L165" s="10">
         <v>0.99999999998200007</v>
       </c>
     </row>
@@ -7347,37 +7372,37 @@
       <c r="A166" s="11">
         <v>8</v>
       </c>
-      <c r="B166" s="26">
+      <c r="B166" s="12">
         <v>12</v>
       </c>
-      <c r="C166" s="12">
+      <c r="C166" s="6">
         <v>-805.82359042045698</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D166" s="6">
         <v>-517.61</v>
       </c>
-      <c r="E166" s="12">
+      <c r="E166" s="6">
         <v>-229.39640957954299</v>
       </c>
-      <c r="F166" s="12">
+      <c r="F166" s="6">
         <v>1.872821E-6</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="13">
         <v>22</v>
       </c>
-      <c r="H166" s="22">
+      <c r="H166" s="14">
         <v>26</v>
       </c>
-      <c r="I166" s="13">
+      <c r="I166" s="9">
         <v>-741.57359042045698</v>
       </c>
-      <c r="J166" s="13">
+      <c r="J166" s="9">
         <v>-453.36</v>
       </c>
-      <c r="K166" s="13">
+      <c r="K166" s="9">
         <v>-165.14640957954299</v>
       </c>
-      <c r="L166" s="14">
+      <c r="L166" s="10">
         <v>3.8229170000000001E-6</v>
       </c>
     </row>
@@ -7385,37 +7410,37 @@
       <c r="A167" s="11">
         <v>8</v>
       </c>
-      <c r="B167" s="26">
+      <c r="B167" s="12">
         <v>13</v>
       </c>
-      <c r="C167" s="12">
+      <c r="C167" s="6">
         <v>63.896409579542997</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="6">
         <v>352.10999999999996</v>
       </c>
-      <c r="E167" s="12">
+      <c r="E167" s="6">
         <v>640.32359042045698</v>
       </c>
-      <c r="F167" s="12">
+      <c r="F167" s="6">
         <v>1.9383777629999998E-3</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="13">
         <v>22</v>
       </c>
-      <c r="H167" s="22">
+      <c r="H167" s="14">
         <v>27</v>
       </c>
-      <c r="I167" s="13">
+      <c r="I167" s="9">
         <v>-1185.6935904204499</v>
       </c>
-      <c r="J167" s="13">
+      <c r="J167" s="9">
         <v>-897.48</v>
       </c>
-      <c r="K167" s="13">
+      <c r="K167" s="9">
         <v>-609.26640957954305</v>
       </c>
-      <c r="L167" s="14">
+      <c r="L167" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -7423,37 +7448,37 @@
       <c r="A168" s="11">
         <v>8</v>
       </c>
-      <c r="B168" s="26">
+      <c r="B168" s="12">
         <v>14</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="6">
         <v>-358.02359042045703</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="6">
         <v>-69.81</v>
       </c>
-      <c r="E168" s="12">
+      <c r="E168" s="6">
         <v>218.40359042045702</v>
       </c>
-      <c r="F168" s="12">
+      <c r="F168" s="6">
         <v>0.999999983604</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="13">
         <v>23</v>
       </c>
-      <c r="H168" s="22">
+      <c r="H168" s="14">
         <v>24</v>
       </c>
-      <c r="I168" s="13">
+      <c r="I168" s="9">
         <v>-751.32359042045709</v>
       </c>
-      <c r="J168" s="13">
+      <c r="J168" s="9">
         <v>-463.11</v>
       </c>
-      <c r="K168" s="13">
+      <c r="K168" s="9">
         <v>-174.89640957954299</v>
       </c>
-      <c r="L168" s="14">
+      <c r="L168" s="10">
         <v>2.768644E-6</v>
       </c>
     </row>
@@ -7461,37 +7486,37 @@
       <c r="A169" s="11">
         <v>8</v>
       </c>
-      <c r="B169" s="26">
+      <c r="B169" s="12">
         <v>15</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="6">
         <v>-807.673590420457</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="6">
         <v>-519.46</v>
       </c>
-      <c r="E169" s="12">
+      <c r="E169" s="6">
         <v>-231.24640957954301</v>
       </c>
-      <c r="F169" s="12">
+      <c r="F169" s="6">
         <v>1.8715250000000001E-6</v>
       </c>
-      <c r="G169" s="10">
+      <c r="G169" s="13">
         <v>23</v>
       </c>
-      <c r="H169" s="22">
+      <c r="H169" s="14">
         <v>25</v>
       </c>
-      <c r="I169" s="13">
+      <c r="I169" s="9">
         <v>45.776409579542999</v>
       </c>
-      <c r="J169" s="13">
+      <c r="J169" s="9">
         <v>333.99</v>
       </c>
-      <c r="K169" s="13">
+      <c r="K169" s="9">
         <v>622.20359042045698</v>
       </c>
-      <c r="L169" s="14">
+      <c r="L169" s="10">
         <v>5.348951827E-3</v>
       </c>
     </row>
@@ -7499,37 +7524,37 @@
       <c r="A170" s="11">
         <v>8</v>
       </c>
-      <c r="B170" s="26">
+      <c r="B170" s="12">
         <v>16</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="6">
         <v>-11.623590420457001</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="6">
         <v>276.58999999999997</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="6">
         <v>564.803590420457</v>
       </c>
-      <c r="F170" s="12">
+      <c r="F170" s="6">
         <v>8.1112579614000008E-2</v>
       </c>
-      <c r="G170" s="10">
+      <c r="G170" s="13">
         <v>23</v>
       </c>
-      <c r="H170" s="22">
+      <c r="H170" s="14">
         <v>26</v>
       </c>
-      <c r="I170" s="13">
+      <c r="I170" s="9">
         <v>-355.48359042045701</v>
       </c>
-      <c r="J170" s="13">
+      <c r="J170" s="9">
         <v>-67.27</v>
       </c>
-      <c r="K170" s="13">
+      <c r="K170" s="9">
         <v>220.94359042045699</v>
       </c>
-      <c r="L170" s="14">
+      <c r="L170" s="10">
         <v>0.99999999289999997</v>
       </c>
     </row>
@@ -7537,37 +7562,37 @@
       <c r="A171" s="11">
         <v>8</v>
       </c>
-      <c r="B171" s="26">
+      <c r="B171" s="12">
         <v>17</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="6">
         <v>-412.73359042045701</v>
       </c>
-      <c r="D171" s="12">
+      <c r="D171" s="6">
         <v>-124.52000000000001</v>
       </c>
-      <c r="E171" s="12">
+      <c r="E171" s="6">
         <v>163.69359042045701</v>
       </c>
-      <c r="F171" s="12">
+      <c r="F171" s="6">
         <v>0.9985417688249999</v>
       </c>
-      <c r="G171" s="10">
+      <c r="G171" s="13">
         <v>23</v>
       </c>
-      <c r="H171" s="22">
+      <c r="H171" s="14">
         <v>27</v>
       </c>
-      <c r="I171" s="13">
+      <c r="I171" s="9">
         <v>-799.60359042045707</v>
       </c>
-      <c r="J171" s="13">
+      <c r="J171" s="9">
         <v>-511.39</v>
       </c>
-      <c r="K171" s="13">
+      <c r="K171" s="9">
         <v>-223.17640957954299</v>
       </c>
-      <c r="L171" s="14">
+      <c r="L171" s="10">
         <v>1.8791479999999998E-6</v>
       </c>
     </row>
@@ -7575,37 +7600,37 @@
       <c r="A172" s="11">
         <v>8</v>
       </c>
-      <c r="B172" s="26">
+      <c r="B172" s="12">
         <v>18</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="6">
         <v>-937.02359042045703</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="6">
         <v>-648.80999999999995</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="6">
         <v>-360.59640957954298</v>
       </c>
-      <c r="F172" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G172" s="10">
+      <c r="F172" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G172" s="13">
         <v>24</v>
       </c>
-      <c r="H172" s="22">
+      <c r="H172" s="14">
         <v>25</v>
       </c>
-      <c r="I172" s="13">
+      <c r="I172" s="9">
         <v>508.886409579543</v>
       </c>
-      <c r="J172" s="13">
+      <c r="J172" s="9">
         <v>797.1</v>
       </c>
-      <c r="K172" s="13">
+      <c r="K172" s="9">
         <v>1085.3135904204501</v>
       </c>
-      <c r="L172" s="14">
+      <c r="L172" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
@@ -7613,37 +7638,37 @@
       <c r="A173" s="11">
         <v>8</v>
       </c>
-      <c r="B173" s="26">
+      <c r="B173" s="12">
         <v>19</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="6">
         <v>-435.98359042045701</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="6">
         <v>-147.77000000000001</v>
       </c>
-      <c r="E173" s="12">
+      <c r="E173" s="6">
         <v>140.44359042045701</v>
       </c>
-      <c r="F173" s="12">
+      <c r="F173" s="6">
         <v>0.98274191522299992</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="13">
         <v>24</v>
       </c>
-      <c r="H173" s="22">
+      <c r="H173" s="14">
         <v>26</v>
       </c>
-      <c r="I173" s="13">
+      <c r="I173" s="9">
         <v>107.62640957954301</v>
       </c>
-      <c r="J173" s="13">
+      <c r="J173" s="9">
         <v>395.84000000000003</v>
       </c>
-      <c r="K173" s="13">
+      <c r="K173" s="9">
         <v>684.053590420457</v>
       </c>
-      <c r="L173" s="14">
+      <c r="L173" s="10">
         <v>1.2845000400000002E-4</v>
       </c>
     </row>
@@ -7651,37 +7676,37 @@
       <c r="A174" s="11">
         <v>8</v>
       </c>
-      <c r="B174" s="26">
+      <c r="B174" s="12">
         <v>20</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="6">
         <v>-756.31359042045699</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="6">
         <v>-468.1</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="6">
         <v>-179.886409579543</v>
       </c>
-      <c r="F174" s="12">
+      <c r="F174" s="6">
         <v>2.468623E-6</v>
       </c>
-      <c r="G174" s="10">
+      <c r="G174" s="13">
         <v>24</v>
       </c>
-      <c r="H174" s="22">
+      <c r="H174" s="14">
         <v>27</v>
       </c>
-      <c r="I174" s="13">
+      <c r="I174" s="9">
         <v>-336.493590420457</v>
       </c>
-      <c r="J174" s="13">
+      <c r="J174" s="9">
         <v>-48.28</v>
       </c>
-      <c r="K174" s="13">
+      <c r="K174" s="9">
         <v>239.93359042045699</v>
       </c>
-      <c r="L174" s="14">
+      <c r="L174" s="10">
         <v>0.99999999999700007</v>
       </c>
     </row>
@@ -7689,37 +7714,37 @@
       <c r="A175" s="11">
         <v>8</v>
       </c>
-      <c r="B175" s="26">
+      <c r="B175" s="12">
         <v>21</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="6">
         <v>-951.84359042045696</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="6">
         <v>-663.63000000000011</v>
       </c>
-      <c r="E175" s="12">
+      <c r="E175" s="6">
         <v>-375.41640957954297</v>
       </c>
-      <c r="F175" s="12">
-        <v>1.8645879999999998E-6</v>
-      </c>
-      <c r="G175" s="10">
+      <c r="F175" s="6">
+        <v>1.8645879999999998E-6</v>
+      </c>
+      <c r="G175" s="13">
         <v>25</v>
       </c>
-      <c r="H175" s="22">
+      <c r="H175" s="14">
         <v>26</v>
       </c>
-      <c r="I175" s="13">
+      <c r="I175" s="9">
         <v>-689.47359042045696</v>
       </c>
-      <c r="J175" s="13">
+      <c r="J175" s="9">
         <v>-401.26</v>
       </c>
-      <c r="K175" s="13">
+      <c r="K175" s="9">
         <v>-113.046409579543</v>
       </c>
-      <c r="L175" s="14">
+      <c r="L175" s="10">
         <v>8.9768962999999999E-5</v>
       </c>
     </row>
@@ -7727,63 +7752,63 @@
       <c r="A176" s="11">
         <v>8</v>
       </c>
-      <c r="B176" s="26">
+      <c r="B176" s="12">
         <v>22</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="6">
         <v>-63.723590420457001</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="6">
         <v>224.49</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="6">
         <v>512.70359042045698</v>
       </c>
-      <c r="F176" s="12">
+      <c r="F176" s="6">
         <v>0.43007377708400002</v>
       </c>
-      <c r="G176" s="10">
+      <c r="G176" s="13">
         <v>25</v>
       </c>
-      <c r="H176" s="22">
+      <c r="H176" s="14">
         <v>27</v>
       </c>
-      <c r="I176" s="13">
+      <c r="I176" s="9">
         <v>-1133.59359042045</v>
       </c>
-      <c r="J176" s="13">
+      <c r="J176" s="9">
         <v>-845.38</v>
       </c>
-      <c r="K176" s="13">
+      <c r="K176" s="9">
         <v>-557.16640957954303</v>
       </c>
-      <c r="L176" s="14">
+      <c r="L176" s="10">
         <v>1.8645879999999998E-6</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="15"/>
-      <c r="B177" s="27"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="17">
+      <c r="B177" s="16"/>
+      <c r="C177" s="17"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="18">
         <v>26</v>
       </c>
-      <c r="H177" s="23">
+      <c r="H177" s="19">
         <v>27</v>
       </c>
-      <c r="I177" s="18">
+      <c r="I177" s="20">
         <v>-732.33359042045697</v>
       </c>
-      <c r="J177" s="18">
+      <c r="J177" s="20">
         <v>-444.12</v>
       </c>
-      <c r="K177" s="18">
+      <c r="K177" s="20">
         <v>-155.90640957954298</v>
       </c>
-      <c r="L177" s="19">
+      <c r="L177" s="21">
         <v>5.865723E-6</v>
       </c>
     </row>
